--- a/06-최종산출물/BackEndAPI/api 정의서v0.6.xlsx
+++ b/06-최종산출물/BackEndAPI/api 정의서v0.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUIK\Documents\GitHub\KSA-final-project\06-최종산출물\BackEndAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77120C47-1D60-4036-9345-6348586B1E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6488249-BF07-4CB9-AFF5-C8E0ACCED41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5910,3875 +5910,3867 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>smokingAttendSave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/smoking/attend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ * "provider": "string",
+ * "userId": 0
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>흡연</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하나의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> api</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>흡연</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수정을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>겸함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>당일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>처음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>호출할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>생성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>두번째</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>호출일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>차일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>전까지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> count </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수치에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Long count + 1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Long -1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>흡연</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정보와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>출석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>체크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하나의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> api</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>흡연</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수정을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>겸함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>당일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>처음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>호출할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>생성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>포인트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>두번째</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>호출일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>차일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>전까지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> count </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수치만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>변경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>포인트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>없음</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Long count = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Long -1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Long -2 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>입력값이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>보다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>적어서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int 1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int 3 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>중복참가로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int 4 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참가인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>초과로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int 5 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다른</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>공식챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참여중이라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int -1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>커스텀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int 1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int 3 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>중복참가로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int 4 = 참가인원 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>초과로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int -1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>userId, customChallengeId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>커스텀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>커스텀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>커스텀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">초대 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>초대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>초대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> List </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>callUserId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>초대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> List </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>userId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 초대  List </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>초대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>초대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>채팅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>채팅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>채팅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> List </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>customChallengeId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>채팅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> List </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>userId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>채팅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  List </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>채팅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>채팅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ * "count": 0,
+ * "provider": "string",
+ * "userId": 0,
+    "memo": "string"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>userId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> challengeId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기간동안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유저의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>흡연</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청
+총</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Long peroid, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>총</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>흡연일수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Long smokingDays, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>총</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>흡연량</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Long total, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>총</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출석일수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Long totalAttends, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>총 메모횟수 Long totalMemos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>값</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> response</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>{
   "period": 0,
   "smokingDays": 0,
   "total": 0,
-  "totalAttends" : 0
+  "totalAttends" : 0,
+  "totalMemos" : 0
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>smokingAttendSave</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/smoking/attend</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- * "count": 0,
- * "provider": "string",
- * "userId": 0
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- * "provider": "string",
- * "userId": 0
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>유저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>흡연</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>등록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>하나의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> api</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>흡연</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>등록과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수정을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>겸함</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>당일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>처음</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>호출할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>경우</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>데이터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>생성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>두번째</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이상</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>호출일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>경우</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>차일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>전까지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> count </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수치에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> +1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>데이터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Long count + 1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>등록성공</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Long -1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>유저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>흡연</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>정보와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>출석</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>체크</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>등록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>하나의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> api</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>흡연</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>등록과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수정을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>겸함</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>당일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>처음</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>호출할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>경우</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>데이터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>생성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>유저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>포인트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>추가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>두번째</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이상</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>호출일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>경우</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>차일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>전까지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> count </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수치만</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>변경</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>유저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>포인트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>추가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>없음</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Long count = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>등록성공</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Long -1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Long -2 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>입력값이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>현재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>보다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>적어서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>userId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> challengeId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>기간동안</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>유저의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>모든</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>흡연</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요청
-총</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>기간</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Long peroid, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>총</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>흡연일수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Long smokingDays, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>총</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>흡연량</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Long total, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>총</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>출석일수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Long totalAttends</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>값</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>포함</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> response</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>유저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>등록</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">int 1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>등록성공</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, int 3 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>중복참가로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, int 4 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>참가인원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>초과로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, int 5 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>다른</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>공식챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>참여중이라</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, int -1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>유저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>커스텀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>등록</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">int 1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>등록성공</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, int 3 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>중복참가로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, int 4 = 참가인원 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>초과로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, int -1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>userId, customChallengeId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>유저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>커스텀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>유저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>커스텀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>유저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>커스텀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>삭제</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">초대 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>등록</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>초대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>모든</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>초대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> List </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>callUserId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>모든</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>초대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> List </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>userId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>모든</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 초대  List </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>초대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>초대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>삭제</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>채팅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>등록</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>채팅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>모든</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>채팅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> List </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>customChallengeId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>모든</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>채팅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> List </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>userId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>모든</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>채팅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  List </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>채팅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>채팅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>삭제</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -9786,7 +9778,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -9884,6 +9876,20 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="13">
@@ -10327,12 +10333,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10366,6 +10366,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -10586,8 +10592,8 @@
   </sheetPr>
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10609,45 +10615,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="53" t="s">
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="51" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="64" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="63"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="57"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="55"/>
       <c r="G2" s="48" t="s">
         <v>31</v>
       </c>
@@ -10666,7 +10672,7 @@
       <c r="L2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="52"/>
+      <c r="M2" s="65"/>
     </row>
     <row r="3" spans="1:13" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
@@ -10870,7 +10876,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>30</v>
@@ -10878,30 +10884,30 @@
       <c r="G9" s="21"/>
       <c r="H9" s="19"/>
       <c r="I9" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L9" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M9" s="31"/>
     </row>
-    <row r="10" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A10" s="49"/>
       <c r="B10" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>5</v>
@@ -10909,11 +10915,11 @@
       <c r="G10" s="21"/>
       <c r="H10" s="19"/>
       <c r="I10" s="4" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L10" s="30" t="s">
         <v>33</v>
@@ -11104,7 +11110,7 @@
       </c>
       <c r="M16" s="31"/>
     </row>
-    <row r="17" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A17" s="50"/>
       <c r="B17" s="23" t="s">
         <v>63</v>
@@ -11116,7 +11122,7 @@
         <v>64</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>5</v>
@@ -11128,7 +11134,7 @@
       <c r="I17" s="28"/>
       <c r="J17" s="19"/>
       <c r="K17" s="4" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="L17" s="30" t="s">
         <v>33</v>
@@ -11401,7 +11407,7 @@
         <v>95</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>30</v>
@@ -11413,7 +11419,7 @@
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="36" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L26" s="30" t="s">
         <v>33</v>
@@ -11870,7 +11876,7 @@
         <v>135</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F41" s="18" t="s">
         <v>30</v>
@@ -11882,7 +11888,7 @@
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="36" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L41" s="30" t="s">
         <v>33</v>
@@ -12023,7 +12029,7 @@
         <v>141</v>
       </c>
       <c r="E46" s="39" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F46" s="40" t="s">
         <v>5</v>
@@ -12054,7 +12060,7 @@
         <v>137</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F47" s="18" t="s">
         <v>5</v>
@@ -12087,7 +12093,7 @@
         <v>137</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F48" s="16" t="s">
         <v>5</v>
@@ -12120,7 +12126,7 @@
         <v>199</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F49" s="18" t="s">
         <v>30</v>
@@ -12151,7 +12157,7 @@
         <v>200</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F50" s="18" t="s">
         <v>5</v>
@@ -12182,7 +12188,7 @@
         <v>201</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F51" s="18" t="s">
         <v>5</v>
@@ -12211,7 +12217,7 @@
         <v>202</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F52" s="18" t="s">
         <v>5</v>
@@ -12242,7 +12248,7 @@
         <v>204</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F53" s="18" t="s">
         <v>5</v>
@@ -12273,7 +12279,7 @@
         <v>200</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F54" s="18" t="s">
         <v>5</v>
@@ -12306,7 +12312,7 @@
         <v>200</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F55" s="16" t="s">
         <v>5</v>
@@ -12339,7 +12345,7 @@
         <v>213</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F56" s="18" t="s">
         <v>30</v>
@@ -12370,7 +12376,7 @@
         <v>214</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F57" s="18" t="s">
         <v>5</v>
@@ -12401,7 +12407,7 @@
         <v>215</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F58" s="18" t="s">
         <v>5</v>
@@ -12430,7 +12436,7 @@
         <v>216</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F59" s="18" t="s">
         <v>5</v>
@@ -12461,7 +12467,7 @@
         <v>217</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F60" s="18" t="s">
         <v>5</v>
@@ -12492,7 +12498,7 @@
         <v>214</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F61" s="18" t="s">
         <v>5</v>
@@ -12525,7 +12531,7 @@
         <v>214</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F62" s="16" t="s">
         <v>5</v>
@@ -12546,6 +12552,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="A49:A55"/>
     <mergeCell ref="A56:A62"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="B1:B2"/>
@@ -12559,10 +12569,6 @@
     <mergeCell ref="A9:A19"/>
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="A26:A33"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="A49:A55"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/06-최종산출물/BackEndAPI/api 정의서v0.6.xlsx
+++ b/06-최종산출물/BackEndAPI/api 정의서v0.6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUIK\Documents\GitHub\KSA-final-project\06-최종산출물\BackEndAPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN10\Desktop\KSA-final-project\06-최종산출물\BackEndAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6488249-BF07-4CB9-AFF5-C8E0ACCED41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BABA32D-FC85-4FBA-89C6-FE381F247F97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="259">
   <si>
     <t>Header</t>
   </si>
@@ -5918,13 +5918,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
- * "provider": "string",
- * "userId": 0
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -6514,6 +6507,149 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Long count = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Long -1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Long -2 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>입력값이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>보다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>적어서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -6532,81 +6668,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>흡연</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>정보와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>출석</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>체크</t>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
     </r>
     <r>
       <rPr>
@@ -6629,41 +6702,427 @@
       </rPr>
       <t>등록</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>하나의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> api</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int 1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int 3 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>중복참가로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int 4 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참가인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>초과로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int 5 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다른</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>공식챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참여중이라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int -1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>커스텀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int 1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int 3 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>중복참가로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int 4 = 참가인원 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>초과로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int -1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>userId, customChallengeId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="Arial"/>
         <family val="3"/>
         <charset val="129"/>
@@ -6674,38 +7133,91 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>흡연</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>커스텀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="Arial"/>
         <family val="3"/>
         <charset val="129"/>
@@ -6716,209 +7228,76 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>등록과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수정을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>겸함</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>당일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>처음</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>호출할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>경우</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>데이터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>생성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
@@ -6932,217 +7311,129 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>포인트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>추가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>두번째</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이상</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>호출일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>경우</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>차일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>전까지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> count </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수치만</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>변경</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>커스텀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -7163,226 +7454,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>포인트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>추가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>없음</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Long count = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>등록성공</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Long -1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Long -2 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>입력값이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>현재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>보다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>적어서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>유저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>-</t>
     </r>
     <r>
@@ -7394,6 +7465,27 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
+      <t>커스텀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>챌린지</t>
     </r>
     <r>
@@ -7415,278 +7507,557 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
+      <t>삭제</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">초대 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>등록</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">int 1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>등록성공</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, int 3 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>중복참가로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, int 4 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>참가인원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>초과로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, int 5 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>다른</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>공식챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>참여중이라</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, int -1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>유저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>커스텀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>챌린지</t>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>초대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>초대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> List </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>callUserId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>초대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> List </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>userId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 초대  List </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>초대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>초대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>채팅</t>
     </r>
     <r>
       <rPr>
@@ -7713,131 +8084,12 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">int 1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>등록성공</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, int 3 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>중복참가로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, int 4 = 참가인원 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>초과로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, int -1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>userId, customChallengeId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="3"/>
         <charset val="129"/>
@@ -7848,15 +8100,17 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="3"/>
         <charset val="129"/>
@@ -7867,72 +8121,38 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>유저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>커스텀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>채팅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="3"/>
         <charset val="129"/>
@@ -7943,15 +8163,17 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="3"/>
         <charset val="129"/>
@@ -7963,6 +8185,264 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>채팅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> List </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>customChallengeId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>채팅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> List </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>userId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>채팅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  List </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>Id</t>
     </r>
     <r>
@@ -8016,49 +8496,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>유저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>커스텀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>챌린지</t>
+      <t>채팅</t>
     </r>
     <r>
       <rPr>
@@ -8159,49 +8597,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>유저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>커스텀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>챌린지</t>
+      <t>채팅</t>
     </r>
     <r>
       <rPr>
@@ -8223,1543 +8619,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>삭제</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">초대 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>등록</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>초대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>모든</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>초대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> List </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>callUserId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>모든</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>초대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> List </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>userId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>모든</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 초대  List </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>초대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>초대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>삭제</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>채팅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>등록</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>채팅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>모든</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>채팅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> List </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>customChallengeId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>모든</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>채팅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> List </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>userId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>모든</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>채팅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  List </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>채팅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>채팅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>삭제</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- * "count": 0,
- * "provider": "string",
- * "userId": 0,
-    "memo": "string"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>userId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> challengeId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해당하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기간동안</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해당하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유저의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모든</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>흡연</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>요청
-총</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기간</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Long peroid, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>총</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>흡연일수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Long smokingDays, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>총</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>흡연량</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Long total, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>총</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출석일수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Long totalAttends, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>총 메모횟수 Long totalMemos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>값</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>포함</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> response</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -9771,6 +8630,1961 @@
   "totalAttends" : 0,
   "totalMemos" : 0
 }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ * "userId": 0
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ * "count": 0,
+ * "userId": 0,
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/smoking/challenge-attend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>smokingChallengeAttendSave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>흡연</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정보와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>출석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>체크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하나의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> api</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>흡연</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수정을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>겸함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>당일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>처음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>호출할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>생성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>포인트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>두번째</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>호출일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>차일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>전까지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> count </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수치만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>변경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>포인트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>없음</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>userId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> challengeId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기간동안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>유저의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>흡연</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요청
+총</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Long peroid, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>총</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>흡연일수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Long smokingDays, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>총</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>흡연량</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Long total, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>총</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>출석일수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Long totalAttends, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>총</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>메모횟수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Long totalMemos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>값</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>포함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> response</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ * "userId": 0,
+ * "memo": "string"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int 1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, int 3 = 당일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>중복인증시도로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 실패, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">int -1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인증</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메모</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하나의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> api</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메모</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>겸함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>당일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>처음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호출할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출석체크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안했을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출석체크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>했을시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>당일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>흡연데이터에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메모값만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가 수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포인트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>두번째</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호출일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -9887,7 +10701,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="굴림"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
@@ -10193,7 +11007,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10329,6 +11143,12 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10366,11 +11186,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10590,10 +11407,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10615,45 +11432,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="51" t="s">
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="64" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="49" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="61"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="55"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="57"/>
       <c r="G2" s="48" t="s">
         <v>31</v>
       </c>
@@ -10672,10 +11489,10 @@
       <c r="L2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="65"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:13" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="51" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="22" t="s">
@@ -10708,7 +11525,7 @@
       <c r="M3" s="31"/>
     </row>
     <row r="4" spans="1:13" ht="356.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="49"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="23" t="s">
         <v>15</v>
       </c>
@@ -10739,7 +11556,7 @@
       <c r="M4" s="31"/>
     </row>
     <row r="5" spans="1:13" ht="384.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="23" t="s">
         <v>37</v>
       </c>
@@ -10768,7 +11585,7 @@
       <c r="M5" s="31"/>
     </row>
     <row r="6" spans="1:13" ht="356.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="23" t="s">
         <v>40</v>
       </c>
@@ -10799,7 +11616,7 @@
       <c r="M6" s="31"/>
     </row>
     <row r="7" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="24" t="s">
         <v>35</v>
       </c>
@@ -10832,7 +11649,7 @@
       <c r="M7" s="31"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="25" t="s">
         <v>43</v>
       </c>
@@ -10862,8 +11679,8 @@
       </c>
       <c r="M8" s="31"/>
     </row>
-    <row r="9" spans="1:13" ht="57" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
+    <row r="9" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="51" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="29" t="s">
@@ -10876,7 +11693,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>30</v>
@@ -10884,19 +11701,19 @@
       <c r="G9" s="21"/>
       <c r="H9" s="19"/>
       <c r="I9" s="4" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L9" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M9" s="31"/>
     </row>
-    <row r="10" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
+    <row r="10" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+      <c r="A10" s="51"/>
       <c r="B10" s="29" t="s">
         <v>223</v>
       </c>
@@ -10907,7 +11724,7 @@
         <v>224</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>5</v>
@@ -10919,98 +11736,98 @@
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L10" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M10" s="31"/>
     </row>
-    <row r="11" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
-      <c r="B11" s="23" t="s">
-        <v>48</v>
+    <row r="11" spans="1:13" ht="66" x14ac:dyDescent="0.2">
+      <c r="A11" s="51"/>
+      <c r="B11" s="29" t="s">
+        <v>253</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>155</v>
+        <v>252</v>
+      </c>
+      <c r="E11" s="66" t="s">
+        <v>258</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="21" t="s">
-        <v>32</v>
-      </c>
+      <c r="G11" s="21"/>
       <c r="H11" s="19"/>
-      <c r="I11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>256</v>
+      </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="4" t="s">
-        <v>50</v>
+      <c r="K11" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="L11" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M11" s="31"/>
     </row>
-    <row r="12" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="49"/>
+    <row r="12" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="51"/>
       <c r="B12" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>156</v>
+        <v>49</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="21"/>
+      <c r="G12" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="H12" s="19"/>
-      <c r="I12" s="12"/>
+      <c r="I12" s="4"/>
       <c r="J12" s="2"/>
       <c r="K12" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L12" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M12" s="31"/>
     </row>
-    <row r="13" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
+    <row r="13" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="51"/>
       <c r="B13" s="23" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>87</v>
+        <v>52</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="19"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="2"/>
       <c r="K13" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L13" s="30" t="s">
         <v>33</v>
@@ -11018,24 +11835,24 @@
       <c r="M13" s="31"/>
     </row>
     <row r="14" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="23" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="28"/>
@@ -11048,19 +11865,19 @@
       </c>
       <c r="M14" s="31"/>
     </row>
-    <row r="15" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
+    <row r="15" spans="1:13" ht="171" x14ac:dyDescent="0.2">
+      <c r="A15" s="52"/>
       <c r="B15" s="23" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>5</v>
@@ -11072,26 +11889,26 @@
       <c r="I15" s="28"/>
       <c r="J15" s="19"/>
       <c r="K15" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L15" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M15" s="31"/>
     </row>
-    <row r="16" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
+    <row r="16" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="52"/>
       <c r="B16" s="23" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>5</v>
@@ -11103,383 +11920,385 @@
       <c r="I16" s="28"/>
       <c r="J16" s="19"/>
       <c r="K16" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L16" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M16" s="31"/>
     </row>
-    <row r="17" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
+    <row r="17" spans="1:13" ht="171" x14ac:dyDescent="0.2">
+      <c r="A17" s="52"/>
       <c r="B17" s="23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>252</v>
+        <v>88</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="28"/>
       <c r="J17" s="19"/>
       <c r="K17" s="4" t="s">
-        <v>253</v>
+        <v>58</v>
       </c>
       <c r="L17" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M17" s="31"/>
     </row>
-    <row r="18" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
-      <c r="B18" s="24" t="s">
-        <v>72</v>
+    <row r="18" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="52"/>
+      <c r="B18" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>158</v>
+        <v>64</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="19"/>
       <c r="K18" s="4" t="s">
-        <v>89</v>
+        <v>249</v>
       </c>
       <c r="L18" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M18" s="31"/>
     </row>
-    <row r="19" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
-      <c r="B19" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="9" t="s">
+    <row r="19" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="52"/>
+      <c r="B19" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F19" s="16" t="s">
+      <c r="E19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="11" t="s">
-        <v>70</v>
+      <c r="H19" s="19"/>
+      <c r="I19" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="L19" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M19" s="31"/>
     </row>
-    <row r="20" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="5" t="s">
-        <v>91</v>
+    <row r="20" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="52"/>
+      <c r="B20" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="L20" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M20" s="31"/>
     </row>
-    <row r="21" spans="1:13" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="49"/>
-      <c r="B21" s="23" t="s">
-        <v>77</v>
+    <row r="21" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>32</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G21" s="21"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="4"/>
+      <c r="I21" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="4" t="s">
-        <v>79</v>
+      <c r="K21" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="L21" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M21" s="31"/>
     </row>
-    <row r="22" spans="1:13" ht="256.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="49"/>
+    <row r="22" spans="1:13" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="51"/>
       <c r="B22" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="21"/>
+      <c r="G22" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="H22" s="19"/>
       <c r="I22" s="4"/>
       <c r="J22" s="2"/>
       <c r="K22" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L22" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M22" s="31"/>
     </row>
-    <row r="23" spans="1:13" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
+    <row r="23" spans="1:13" ht="256.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="51"/>
       <c r="B23" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="21" t="s">
-        <v>61</v>
-      </c>
+      <c r="G23" s="21"/>
       <c r="H23" s="19"/>
-      <c r="I23" s="13"/>
+      <c r="I23" s="4"/>
       <c r="J23" s="2"/>
       <c r="K23" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L23" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M23" s="31"/>
     </row>
-    <row r="24" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
-      <c r="B24" s="24" t="s">
-        <v>85</v>
+    <row r="24" spans="1:13" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="52"/>
+      <c r="B24" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>162</v>
+        <v>83</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="H24" s="19"/>
-      <c r="I24" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="I24" s="13"/>
       <c r="J24" s="2"/>
       <c r="K24" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="L24" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M24" s="31"/>
     </row>
-    <row r="25" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
-      <c r="B25" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="9" t="s">
+    <row r="25" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="52"/>
+      <c r="B25" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="F25" s="16" t="s">
+      <c r="E25" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="11" t="s">
-        <v>164</v>
+      <c r="H25" s="19"/>
+      <c r="I25" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="L25" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M25" s="31"/>
     </row>
-    <row r="26" spans="1:13" ht="57" x14ac:dyDescent="0.2">
-      <c r="A26" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="36" t="s">
-        <v>231</v>
+    <row r="26" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="52"/>
+      <c r="B26" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="L26" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M26" s="32"/>
+      <c r="M26" s="31"/>
     </row>
-    <row r="27" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
-      <c r="B27" s="23" t="s">
-        <v>98</v>
+    <row r="27" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+      <c r="A27" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G27" s="21"/>
       <c r="H27" s="19"/>
-      <c r="I27" s="4"/>
+      <c r="I27" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="4" t="s">
-        <v>100</v>
+      <c r="K27" s="36" t="s">
+        <v>229</v>
       </c>
       <c r="L27" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="31"/>
+      <c r="M27" s="32"/>
     </row>
-    <row r="28" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
+    <row r="28" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="51"/>
       <c r="B28" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>166</v>
+        <v>99</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="21"/>
+      <c r="G28" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="H28" s="19"/>
       <c r="I28" s="4"/>
       <c r="J28" s="2"/>
       <c r="K28" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L28" s="30" t="s">
         <v>33</v>
@@ -11487,30 +12306,28 @@
       <c r="M28" s="31"/>
     </row>
     <row r="29" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="50"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="21" t="s">
-        <v>112</v>
-      </c>
+      <c r="G29" s="21"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="13"/>
+      <c r="I29" s="4"/>
       <c r="J29" s="2"/>
       <c r="K29" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L29" s="30" t="s">
         <v>33</v>
@@ -11518,28 +12335,28 @@
       <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="19"/>
+        <v>112</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="2"/>
       <c r="K30" s="4" t="s">
         <v>106</v>
       </c>
@@ -11548,219 +12365,219 @@
       </c>
       <c r="M30" s="31"/>
     </row>
-    <row r="31" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="50"/>
+    <row r="31" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="52"/>
       <c r="B31" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="H31" s="27"/>
       <c r="I31" s="28"/>
       <c r="J31" s="19"/>
       <c r="K31" s="4" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="L31" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M31" s="31"/>
     </row>
-    <row r="32" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="50"/>
-      <c r="B32" s="24" t="s">
-        <v>114</v>
+    <row r="32" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="52"/>
+      <c r="B32" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="J32" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="19"/>
       <c r="K32" s="4" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L32" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M32" s="31"/>
     </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="50"/>
-      <c r="B33" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="9" t="s">
+    <row r="33" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="52"/>
+      <c r="B33" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F33" s="16" t="s">
+      <c r="E33" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="11" t="s">
-        <v>70</v>
+      <c r="H33" s="19"/>
+      <c r="I33" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="L33" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M33" s="31"/>
     </row>
-    <row r="34" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A34" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="21"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="5" t="s">
-        <v>91</v>
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="52"/>
+      <c r="B34" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="L34" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M34" s="32"/>
+      <c r="M34" s="31"/>
     </row>
-    <row r="35" spans="1:13" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="49"/>
-      <c r="B35" s="23" t="s">
-        <v>118</v>
+    <row r="35" spans="1:13" ht="171" x14ac:dyDescent="0.2">
+      <c r="A35" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>117</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G35" s="21"/>
       <c r="H35" s="19"/>
-      <c r="I35" s="4"/>
+      <c r="I35" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="J35" s="2"/>
-      <c r="K35" s="4" t="s">
-        <v>120</v>
+      <c r="K35" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="L35" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M35" s="31"/>
+      <c r="M35" s="32"/>
     </row>
-    <row r="36" spans="1:13" ht="285" x14ac:dyDescent="0.2">
-      <c r="A36" s="49"/>
+    <row r="36" spans="1:13" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="51"/>
       <c r="B36" s="23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>174</v>
+        <v>119</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="21"/>
+      <c r="G36" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="H36" s="19"/>
       <c r="I36" s="4"/>
       <c r="J36" s="2"/>
       <c r="K36" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L36" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M36" s="31"/>
     </row>
-    <row r="37" spans="1:13" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="50"/>
+    <row r="37" spans="1:13" ht="285" x14ac:dyDescent="0.2">
+      <c r="A37" s="51"/>
       <c r="B37" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>175</v>
+        <v>122</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="21" t="s">
-        <v>61</v>
-      </c>
+      <c r="G37" s="21"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="13"/>
+      <c r="I37" s="4"/>
       <c r="J37" s="2"/>
       <c r="K37" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L37" s="30" t="s">
         <v>33</v>
@@ -11768,28 +12585,28 @@
       <c r="M37" s="31"/>
     </row>
     <row r="38" spans="1:13" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="50"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>176</v>
+        <v>124</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H38" s="27"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="19"/>
+        <v>61</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="2"/>
       <c r="K38" s="4" t="s">
         <v>129</v>
       </c>
@@ -11798,157 +12615,159 @@
       </c>
       <c r="M38" s="31"/>
     </row>
-    <row r="39" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A39" s="50"/>
-      <c r="B39" s="24" t="s">
-        <v>130</v>
+    <row r="39" spans="1:13" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="52"/>
+      <c r="B39" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="J39" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="H39" s="27"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="19"/>
       <c r="K39" s="4" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="L39" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M39" s="31"/>
     </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="50"/>
-      <c r="B40" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="9" t="s">
+    <row r="40" spans="1:13" ht="171" x14ac:dyDescent="0.2">
+      <c r="A40" s="52"/>
+      <c r="B40" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F40" s="16" t="s">
+      <c r="E40" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F40" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="11" t="s">
-        <v>70</v>
+      <c r="H40" s="19"/>
+      <c r="I40" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="L40" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M40" s="31"/>
     </row>
-    <row r="41" spans="1:13" ht="57" x14ac:dyDescent="0.2">
-      <c r="A41" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="36" t="s">
-        <v>233</v>
+    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="52"/>
+      <c r="B41" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="L41" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M41" s="32"/>
+      <c r="M41" s="31"/>
     </row>
-    <row r="42" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="49"/>
-      <c r="B42" s="23" t="s">
-        <v>136</v>
+    <row r="42" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+      <c r="A42" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>134</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="21" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G42" s="21"/>
       <c r="H42" s="19"/>
-      <c r="I42" s="4"/>
+      <c r="I42" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="J42" s="2"/>
-      <c r="K42" s="4" t="s">
-        <v>143</v>
+      <c r="K42" s="36" t="s">
+        <v>231</v>
       </c>
       <c r="L42" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M42" s="31"/>
+      <c r="M42" s="32"/>
     </row>
-    <row r="43" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="49"/>
+    <row r="43" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="51"/>
       <c r="B43" s="23" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>180</v>
+        <v>137</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="21"/>
+      <c r="G43" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="H43" s="19"/>
       <c r="I43" s="4"/>
       <c r="J43" s="2"/>
       <c r="K43" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L43" s="30" t="s">
         <v>33</v>
@@ -11956,30 +12775,28 @@
       <c r="M43" s="31"/>
     </row>
     <row r="44" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="50"/>
+      <c r="A44" s="51"/>
       <c r="B44" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F44" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="21" t="s">
-        <v>197</v>
-      </c>
+      <c r="G44" s="21"/>
       <c r="H44" s="19"/>
-      <c r="I44" s="13"/>
+      <c r="I44" s="4"/>
       <c r="J44" s="2"/>
       <c r="K44" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L44" s="30" t="s">
         <v>33</v>
@@ -11987,249 +12804,249 @@
       <c r="M44" s="31"/>
     </row>
     <row r="45" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="50"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="H45" s="27"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="19"/>
+        <v>197</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="2"/>
       <c r="K45" s="4" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="L45" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M45" s="31"/>
     </row>
-    <row r="46" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="50"/>
-      <c r="B46" s="37" t="s">
+    <row r="46" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="52"/>
+      <c r="B46" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" s="27"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L46" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="M46" s="31"/>
+    </row>
+    <row r="47" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="52"/>
+      <c r="B47" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="C46" s="38" t="s">
+      <c r="C47" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="39" t="s">
+      <c r="D47" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="E46" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="F46" s="40" t="s">
+      <c r="E47" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="F47" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G46" s="41" t="s">
+      <c r="G47" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="H46" s="42"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="45" t="s">
+      <c r="H47" s="42"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="L46" s="46" t="s">
+      <c r="L47" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="M46" s="47"/>
+      <c r="M47" s="47"/>
     </row>
-    <row r="47" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="50"/>
-      <c r="B47" s="24" t="s">
+    <row r="48" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="52"/>
+      <c r="B48" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F47" s="18" t="s">
+      <c r="E48" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F48" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="21" t="s">
+      <c r="G48" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="10" t="s">
+      <c r="H48" s="19"/>
+      <c r="I48" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="J47" s="2"/>
-      <c r="K47" s="4" t="s">
+      <c r="J48" s="2"/>
+      <c r="K48" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="L47" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="M47" s="31"/>
-    </row>
-    <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="50"/>
-      <c r="B48" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" s="20"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="11" t="s">
-        <v>164</v>
       </c>
       <c r="L48" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M48" s="31"/>
     </row>
-    <row r="49" spans="1:13" ht="114" x14ac:dyDescent="0.2">
-      <c r="A49" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49" s="21"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="J49" s="2"/>
-      <c r="K49" s="5" t="s">
-        <v>91</v>
+    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="52"/>
+      <c r="B49" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="L49" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M49" s="32"/>
+      <c r="M49" s="31"/>
     </row>
-    <row r="50" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="49"/>
-      <c r="B50" s="23" t="s">
-        <v>189</v>
+    <row r="50" spans="1:13" ht="114" x14ac:dyDescent="0.2">
+      <c r="A50" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>188</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G50" s="21" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G50" s="21"/>
       <c r="H50" s="19"/>
-      <c r="I50" s="4"/>
+      <c r="I50" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="J50" s="2"/>
-      <c r="K50" s="4" t="s">
-        <v>196</v>
+      <c r="K50" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="L50" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M50" s="31"/>
+      <c r="M50" s="32"/>
     </row>
-    <row r="51" spans="1:13" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="49"/>
+    <row r="51" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="51"/>
       <c r="B51" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="F51" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="21"/>
+      <c r="G51" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="H51" s="19"/>
       <c r="I51" s="4"/>
       <c r="J51" s="2"/>
       <c r="K51" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L51" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M51" s="31"/>
     </row>
-    <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="50"/>
+    <row r="52" spans="1:13" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="51"/>
       <c r="B52" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F52" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="21" t="s">
-        <v>203</v>
-      </c>
+      <c r="G52" s="21"/>
       <c r="H52" s="19"/>
-      <c r="I52" s="13"/>
+      <c r="I52" s="4"/>
       <c r="J52" s="2"/>
       <c r="K52" s="4" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="L52" s="30" t="s">
         <v>33</v>
@@ -12237,28 +13054,28 @@
       <c r="M52" s="31"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="50"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F53" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="H53" s="27"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="19"/>
+        <v>203</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="2"/>
       <c r="K53" s="4" t="s">
         <v>106</v>
       </c>
@@ -12267,157 +13084,159 @@
       </c>
       <c r="M53" s="31"/>
     </row>
-    <row r="54" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="50"/>
-      <c r="B54" s="24" t="s">
-        <v>193</v>
+    <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="52"/>
+      <c r="B54" s="23" t="s">
+        <v>192</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F54" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="J54" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="H54" s="27"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="19"/>
       <c r="K54" s="4" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="L54" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M54" s="31"/>
     </row>
-    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="50"/>
-      <c r="B55" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="9" t="s">
+    <row r="55" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="52"/>
+      <c r="B55" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E55" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="F55" s="16" t="s">
+      <c r="E55" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F55" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G55" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H55" s="20"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="11" t="s">
-        <v>164</v>
+      <c r="H55" s="19"/>
+      <c r="I55" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="L55" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M55" s="31"/>
     </row>
-    <row r="56" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="49" t="s">
-        <v>206</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F56" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G56" s="21"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="J56" s="2"/>
-      <c r="K56" s="5" t="s">
-        <v>91</v>
+    <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="52"/>
+      <c r="B56" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="L56" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M56" s="32"/>
+      <c r="M56" s="31"/>
     </row>
-    <row r="57" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="49"/>
-      <c r="B57" s="23" t="s">
-        <v>208</v>
+    <row r="57" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>207</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="21" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G57" s="21"/>
       <c r="H57" s="19"/>
-      <c r="I57" s="4"/>
+      <c r="I57" s="4" t="s">
+        <v>219</v>
+      </c>
       <c r="J57" s="2"/>
-      <c r="K57" s="4" t="s">
-        <v>221</v>
+      <c r="K57" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="L57" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M57" s="31"/>
+      <c r="M57" s="32"/>
     </row>
-    <row r="58" spans="1:13" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="49"/>
+    <row r="58" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="51"/>
       <c r="B58" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>246</v>
+        <v>214</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="F58" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="21"/>
+      <c r="G58" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="H58" s="19"/>
       <c r="I58" s="4"/>
       <c r="J58" s="2"/>
       <c r="K58" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L58" s="30" t="s">
         <v>33</v>
@@ -12425,27 +13244,25 @@
       <c r="M58" s="31"/>
     </row>
     <row r="59" spans="1:13" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="50"/>
+      <c r="A59" s="51"/>
       <c r="B59" s="23" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F59" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="21" t="s">
-        <v>197</v>
-      </c>
+      <c r="G59" s="21"/>
       <c r="H59" s="19"/>
-      <c r="I59" s="13"/>
+      <c r="I59" s="4"/>
       <c r="J59" s="2"/>
       <c r="K59" s="4" t="s">
         <v>222</v>
@@ -12456,28 +13273,28 @@
       <c r="M59" s="31"/>
     </row>
     <row r="60" spans="1:13" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="50"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="23" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F60" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="H60" s="27"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="19"/>
+        <v>197</v>
+      </c>
+      <c r="H60" s="19"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="2"/>
       <c r="K60" s="4" t="s">
         <v>222</v>
       </c>
@@ -12486,77 +13303,109 @@
       </c>
       <c r="M60" s="31"/>
     </row>
-    <row r="61" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="50"/>
-      <c r="B61" s="24" t="s">
-        <v>211</v>
+    <row r="61" spans="1:13" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="52"/>
+      <c r="B61" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F61" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G61" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="J61" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="H61" s="27"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="19"/>
       <c r="K61" s="4" t="s">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="L61" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M61" s="31"/>
     </row>
-    <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="50"/>
-      <c r="B62" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="9" t="s">
+    <row r="62" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="52"/>
+      <c r="B62" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E62" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="F62" s="16" t="s">
+      <c r="E62" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F62" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G62" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H62" s="20"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="11" t="s">
-        <v>164</v>
+      <c r="H62" s="19"/>
+      <c r="I62" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="J62" s="2"/>
+      <c r="K62" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="L62" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M62" s="31"/>
+    </row>
+    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="52"/>
+      <c r="B63" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="L63" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="M63" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A27:A34"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="A57:A63"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:F2"/>
@@ -12566,9 +13415,8 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A9:A19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="A9:A20"/>
+    <mergeCell ref="A21:A26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/06-최종산출물/BackEndAPI/api 정의서v0.6.xlsx
+++ b/06-최종산출물/BackEndAPI/api 정의서v0.6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN10\Desktop\KSA-final-project\06-최종산출물\BackEndAPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUIK\Documents\GitHub\KSA-final-project\06-최종산출물\BackEndAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BABA32D-FC85-4FBA-89C6-FE381F247F97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A72EAE0-A2BA-438E-ACC0-2D757F0014B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="258">
   <si>
     <t>Header</t>
   </si>
@@ -361,34 +361,6 @@
   </si>
   <si>
     <t>/api/user/all</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "averageSmoking": 0,
-  "badgeId": 0,
-  "birthYear": "2022-04-16",
-  "chat": [],
-  "comment": "string",
-  "customChallenge": [],
-  "gender": "string",
-  "id": 0,
-  "inviteCaller": [],
-  "inviteUser": [],
-  "likes": [],
-  "point": 0,
-  "popupImg": "string",
-  "post": [],
-  "price": 0,
-  "profileImg": "string",
-  "proof": [],
-  "ranking": 0,
-  "smoking": [],
-  "smokingYear": 0,
-  "userChallenge": [],
-  "userCustom": [],
-  "userName": "string"
-}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -874,78 +846,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
-  "challengeImg": [],
-  "current": 0,
-  "description": "string",
-  "endDate": "2022-04-16T02:39:41.575Z",
-  "frequency": 0,
-  "id": 0,
-  "isJoin": true,
-  "max": 0,
-  "method": "string",
-  "point": 0,
-  "proof": [],
-  "startDate": "2022-04-16T02:39:41.575Z",
-  "summary": "string",
-  "title": "string",
-  "userChallenge": []
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>chellengeGetAll</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[
-  {
-  "challengeImg": [],
-  "current": 0,
-  "description": "string",
-  "endDate": "2022-04-16T02:39:41.575Z",
-  "frequency": 0,
-  "id": 0,
-  "isJoin": true,
-  "max": 0,
-  "method": "string",
-  "point": 0,
-  "proof": [],
-  "startDate": "2022-04-16T02:39:41.575Z",
-  "summary": "string",
-  "title": "string",
-  "userChallenge": []
-  }
-]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>challengeGetAllIncludeUserId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/api/challenge/all/{userId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[
-  {
-  "challengeImg": [],
-  "current": 0,
-  "description": "string",
-  "endDate": "2022-04-16T02:39:41.575Z",
-  "frequency": 0,
-  "id": 0,
-  "max": 0,
-  "method": "string",
-  "point": 0,
-  "proof": [],
-  "startDate": "2022-04-16T02:39:41.575Z",
-  "summary": "string",
-  "title": "string",
-  "userChallenge": []
-  }
-]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1593,178 +1502,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>모든</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> List </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>현재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>참가중인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>인원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Long current</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>값</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>포함</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> response</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2872,566 +2609,6 @@
   </si>
   <si>
     <r>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>현재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>참가중인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>인원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Long current, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>참가여부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Boolean isJoin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>값</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>포함</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> response</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>userId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>모든</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> List </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요청
-현재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>참가중인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>인원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Long current</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>값</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>유저의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>참가여부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Boolean isJoin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>값</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>포함</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> response</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>Id</t>
     </r>
     <r>
@@ -6706,221 +5883,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">int 1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>등록성공</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, int 3 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>중복참가로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, int 4 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>참가인원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>초과로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, int 5 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>다른</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>공식챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>참여중이라</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, int -1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -9839,88 +8801,13 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">int 1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등록성공</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, int 3 = 당일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>중복인증시도로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 실패, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">int -1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
       <t>챌린지</t>
     </r>
@@ -9938,9 +8825,10 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
       <t>인증</t>
     </r>
@@ -9958,9 +8846,10 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
       <t>메모</t>
     </r>
@@ -9978,9 +8867,10 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
       <t>등록</t>
     </r>
@@ -9998,9 +8888,10 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
       <t>하나의</t>
     </r>
@@ -10018,9 +8909,10 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
       <t>로</t>
     </r>
@@ -10038,9 +8930,10 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
       <t>메모</t>
     </r>
@@ -10058,9 +8951,10 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
       <t>등록과</t>
     </r>
@@ -10078,9 +8972,10 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
       <t>수정을</t>
     </r>
@@ -10098,9 +8993,10 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
       <t>겸함</t>
     </r>
@@ -10119,11 +9015,936 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>당일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>처음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>호출할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>출석체크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>안했을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>생성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>출석체크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>했을시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>당일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>흡연데이터에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>메모값만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>포인트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>두번째</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>호출일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int 1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int 3 = 당일 중복인증시도로 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int -1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int 1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int 3 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>중복참가로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int 4 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참가인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>초과로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int 5 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다른</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>공식챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참여중이라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int 6 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>진행중인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지이므로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int -1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "challengeImg": [],
+  "current": 0,
+  "description": "string",
+  "endDate": "2022-04-16T02:39:41.575Z",
+  "frequency": 0,
+  "id": 0,
+  "isJoin": true,
+  "isStart": true,
+  "startingPeople: 0,
+  "max": 0,
+  "method": "string",
+  "point": 0,
+  "proof": [],
+  "startDate": "2022-04-16T02:39:41.575Z",
+  "summary": "string",
+  "title": "string",
+  "userChallenge": []
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+  "challengeImg": [],
+  "current": 0,
+  "description": "string",
+  "endDate": "2022-04-16T02:39:41.575Z",
+  "frequency": 0,
+  "id": 0,
+  "isJoin": true,
+  "isStart": true,
+  "startingPeople: 0,
+  "max": 0,
+  "method": "string",
+  "point": 0,
+  "proof": [],
+  "startDate": "2022-04-16T02:39:41.575Z",
+  "summary": "string",
+  "title": "string",
+  "userChallenge": []
+  }
+]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "id": 0,
+  "profileImg": "string",
+  "userName": "string"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>당일</t>
+      <t>로</t>
     </r>
     <r>
       <rPr>
@@ -10143,7 +9964,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>처음</t>
+      <t>해당</t>
     </r>
     <r>
       <rPr>
@@ -10163,7 +9984,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>호출할</t>
+      <t>챌린지</t>
     </r>
     <r>
       <rPr>
@@ -10183,7 +10004,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>경우</t>
+      <t>정보</t>
     </r>
     <r>
       <rPr>
@@ -10203,17 +10024,18 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>출석체크</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>요청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
@@ -10223,7 +10045,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>안했을</t>
+      <t>현재</t>
     </r>
     <r>
       <rPr>
@@ -10243,7 +10065,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>시</t>
+      <t>참가중인</t>
     </r>
     <r>
       <rPr>
@@ -10263,17 +10085,17 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>데이터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Long current, </t>
     </r>
     <r>
       <rPr>
@@ -10283,17 +10105,17 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>생성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -10303,17 +10125,17 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>출석체크</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>참가여부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Boolean isJoin, </t>
     </r>
     <r>
       <rPr>
@@ -10323,7 +10145,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>했을시</t>
+      <t>챌린지</t>
     </r>
     <r>
       <rPr>
@@ -10343,17 +10165,17 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>당일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>시작여부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Boolean isStart, </t>
     </r>
     <r>
       <rPr>
@@ -10363,7 +10185,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>흡연데이터에</t>
+      <t>챌린지</t>
     </r>
     <r>
       <rPr>
@@ -10383,17 +10205,17 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>메모값만</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>시작인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Long startingPeople</t>
     </r>
     <r>
       <rPr>
@@ -10403,17 +10225,17 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>추가 수정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
+      <t>값</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -10423,18 +10245,21 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>유저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+      <t>포함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> response</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -10443,7 +10268,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>포인트</t>
+      <t>모든</t>
     </r>
     <r>
       <rPr>
@@ -10463,17 +10288,17 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>추가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> List </t>
     </r>
     <r>
       <rPr>
@@ -10483,17 +10308,18 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>두번째</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>요청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
@@ -10503,17 +10329,174 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>이상</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참가중인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Long current,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시작여부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Boolean isStart, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시작인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Long startingPeople</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>값</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> response</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>userId</t>
     </r>
     <r>
       <rPr>
@@ -10523,7 +10506,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>호출일</t>
+      <t>로</t>
     </r>
     <r>
       <rPr>
@@ -10543,17 +10526,17 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>경우</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -1 </t>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -10563,7 +10546,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>에러</t>
+      <t>모든</t>
     </r>
     <r>
       <rPr>
@@ -10583,7 +10566,28 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>출력</t>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> List </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청
+현재 참가중인 인원 Long current, 해당 유저의 챌린지 참가여부 Boolean isJoin, 챌린지 시작여부 Boolean isStart, 챌린지 시작인원 Long startingPeople값 포함 response</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -10592,7 +10596,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -10701,8 +10705,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="굴림"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -11143,16 +11153,19 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11186,9 +11199,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -11409,8 +11419,8 @@
   </sheetPr>
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11432,45 +11442,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="53" t="s">
+      <c r="H1" s="59"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="49" t="s">
-        <v>109</v>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="52" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="63"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="57"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="48" t="s">
         <v>31</v>
       </c>
@@ -11478,7 +11488,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J2" s="34" t="s">
         <v>0</v>
@@ -11489,10 +11499,10 @@
       <c r="L2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="50"/>
+      <c r="M2" s="53"/>
     </row>
     <row r="3" spans="1:13" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="50" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="22" t="s">
@@ -11505,7 +11515,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>30</v>
@@ -11513,11 +11523,11 @@
       <c r="G3" s="15"/>
       <c r="H3" s="2"/>
       <c r="I3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L3" s="30" t="s">
         <v>33</v>
@@ -11525,7 +11535,7 @@
       <c r="M3" s="31"/>
     </row>
     <row r="4" spans="1:13" ht="356.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="23" t="s">
         <v>15</v>
       </c>
@@ -11536,7 +11546,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>5</v>
@@ -11556,7 +11566,7 @@
       <c r="M4" s="31"/>
     </row>
     <row r="5" spans="1:13" ht="384.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="23" t="s">
         <v>37</v>
       </c>
@@ -11567,7 +11577,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>5</v>
@@ -11577,38 +11587,38 @@
       <c r="I5" s="4"/>
       <c r="J5" s="2"/>
       <c r="K5" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L5" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M5" s="31"/>
     </row>
-    <row r="6" spans="1:13" ht="356.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
+    <row r="6" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="51"/>
       <c r="B6" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="13"/>
       <c r="J6" s="2"/>
       <c r="K6" s="4" t="s">
-        <v>39</v>
+        <v>254</v>
       </c>
       <c r="L6" s="30" t="s">
         <v>33</v>
@@ -11616,7 +11626,7 @@
       <c r="M6" s="31"/>
     </row>
     <row r="7" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="24" t="s">
         <v>35</v>
       </c>
@@ -11627,7 +11637,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>5</v>
@@ -11641,7 +11651,7 @@
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L7" s="30" t="s">
         <v>33</v>
@@ -11649,9 +11659,9 @@
       <c r="M7" s="31"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>7</v>
@@ -11660,7 +11670,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>5</v>
@@ -11672,7 +11682,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="9"/>
       <c r="K8" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L8" s="30" t="s">
         <v>33</v>
@@ -11680,7 +11690,7 @@
       <c r="M8" s="31"/>
     </row>
     <row r="9" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="50" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="29" t="s">
@@ -11693,7 +11703,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>30</v>
@@ -11701,11 +11711,11 @@
       <c r="G9" s="21"/>
       <c r="H9" s="19"/>
       <c r="I9" s="4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="L9" s="30" t="s">
         <v>33</v>
@@ -11713,18 +11723,18 @@
       <c r="M9" s="31"/>
     </row>
     <row r="10" spans="1:13" ht="57" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="29" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>5</v>
@@ -11732,30 +11742,30 @@
       <c r="G10" s="21"/>
       <c r="H10" s="19"/>
       <c r="I10" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="5" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="L10" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M10" s="31"/>
     </row>
-    <row r="11" spans="1:13" ht="66" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
+    <row r="11" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+      <c r="A11" s="50"/>
       <c r="B11" s="29" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E11" s="66" t="s">
-        <v>258</v>
+        <v>244</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>5</v>
@@ -11763,11 +11773,11 @@
       <c r="G11" s="21"/>
       <c r="H11" s="19"/>
       <c r="I11" s="4" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="5" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="L11" s="30" t="s">
         <v>33</v>
@@ -11775,18 +11785,18 @@
       <c r="M11" s="31"/>
     </row>
     <row r="12" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>5</v>
@@ -11798,7 +11808,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="2"/>
       <c r="K12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L12" s="30" t="s">
         <v>33</v>
@@ -11806,18 +11816,18 @@
       <c r="M12" s="31"/>
     </row>
     <row r="13" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>5</v>
@@ -11827,7 +11837,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="2"/>
       <c r="K13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L13" s="30" t="s">
         <v>33</v>
@@ -11835,7 +11845,7 @@
       <c r="M13" s="31"/>
     </row>
     <row r="14" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="23" t="s">
         <v>11</v>
       </c>
@@ -11843,22 +11853,22 @@
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="28"/>
       <c r="J14" s="19"/>
       <c r="K14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L14" s="30" t="s">
         <v>33</v>
@@ -11866,30 +11876,30 @@
       <c r="M14" s="31"/>
     </row>
     <row r="15" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="28"/>
       <c r="J15" s="19"/>
       <c r="K15" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L15" s="30" t="s">
         <v>33</v>
@@ -11897,7 +11907,7 @@
       <c r="M15" s="31"/>
     </row>
     <row r="16" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="23" t="s">
         <v>17</v>
       </c>
@@ -11905,22 +11915,22 @@
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="28"/>
       <c r="J16" s="19"/>
       <c r="K16" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L16" s="30" t="s">
         <v>33</v>
@@ -11928,30 +11938,30 @@
       <c r="M16" s="31"/>
     </row>
     <row r="17" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="28"/>
       <c r="J17" s="19"/>
       <c r="K17" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L17" s="30" t="s">
         <v>33</v>
@@ -11959,30 +11969,30 @@
       <c r="M17" s="31"/>
     </row>
     <row r="18" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="28"/>
       <c r="J18" s="19"/>
       <c r="K18" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="L18" s="30" t="s">
         <v>33</v>
@@ -11990,18 +12000,18 @@
       <c r="M18" s="31"/>
     </row>
     <row r="19" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>5</v>
@@ -12011,11 +12021,11 @@
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L19" s="30" t="s">
         <v>33</v>
@@ -12023,18 +12033,18 @@
       <c r="M19" s="31"/>
     </row>
     <row r="20" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>5</v>
@@ -12046,59 +12056,59 @@
       <c r="I20" s="10"/>
       <c r="J20" s="9"/>
       <c r="K20" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L20" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M20" s="31"/>
     </row>
-    <row r="21" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
+    <row r="21" spans="1:13" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="50" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>75</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>76</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="19"/>
       <c r="I21" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L21" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M21" s="31"/>
     </row>
-    <row r="22" spans="1:13" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
+    <row r="22" spans="1:13" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="50"/>
       <c r="B22" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>160</v>
+        <v>255</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>5</v>
@@ -12110,17 +12120,17 @@
       <c r="I22" s="4"/>
       <c r="J22" s="2"/>
       <c r="K22" s="4" t="s">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="L22" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M22" s="31"/>
     </row>
-    <row r="23" spans="1:13" ht="256.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
+    <row r="23" spans="1:13" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="50"/>
       <c r="B23" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -12128,8 +12138,8 @@
       <c r="D23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>92</v>
+      <c r="E23" s="49" t="s">
+        <v>256</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>5</v>
@@ -12139,38 +12149,38 @@
       <c r="I23" s="4"/>
       <c r="J23" s="2"/>
       <c r="K23" s="4" t="s">
-        <v>84</v>
+        <v>253</v>
       </c>
       <c r="L23" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M23" s="31"/>
     </row>
-    <row r="24" spans="1:13" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
+    <row r="24" spans="1:13" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="51"/>
       <c r="B24" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>161</v>
+        <v>257</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="13"/>
       <c r="J24" s="2"/>
       <c r="K24" s="4" t="s">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="L24" s="30" t="s">
         <v>33</v>
@@ -12178,18 +12188,18 @@
       <c r="M24" s="31"/>
     </row>
     <row r="25" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="52"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>5</v>
@@ -12199,11 +12209,11 @@
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L25" s="30" t="s">
         <v>33</v>
@@ -12211,18 +12221,18 @@
       <c r="M25" s="31"/>
     </row>
     <row r="26" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="52"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>5</v>
@@ -12234,7 +12244,7 @@
       <c r="I26" s="10"/>
       <c r="J26" s="9"/>
       <c r="K26" s="11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="L26" s="30" t="s">
         <v>33</v>
@@ -12242,20 +12252,20 @@
       <c r="M26" s="31"/>
     </row>
     <row r="27" spans="1:13" ht="57" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
-        <v>44</v>
+      <c r="A27" s="50" t="s">
+        <v>43</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>30</v>
@@ -12263,11 +12273,11 @@
       <c r="G27" s="21"/>
       <c r="H27" s="19"/>
       <c r="I27" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="36" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="L27" s="30" t="s">
         <v>33</v>
@@ -12275,18 +12285,18 @@
       <c r="M27" s="32"/>
     </row>
     <row r="28" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>5</v>
@@ -12298,7 +12308,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="2"/>
       <c r="K28" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L28" s="30" t="s">
         <v>33</v>
@@ -12306,18 +12316,18 @@
       <c r="M28" s="31"/>
     </row>
     <row r="29" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>5</v>
@@ -12327,7 +12337,7 @@
       <c r="I29" s="4"/>
       <c r="J29" s="2"/>
       <c r="K29" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L29" s="30" t="s">
         <v>33</v>
@@ -12335,30 +12345,30 @@
       <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="52"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="13"/>
       <c r="J30" s="2"/>
       <c r="K30" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L30" s="30" t="s">
         <v>33</v>
@@ -12366,30 +12376,30 @@
       <c r="M30" s="31"/>
     </row>
     <row r="31" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="52"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H31" s="27"/>
       <c r="I31" s="28"/>
       <c r="J31" s="19"/>
       <c r="K31" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L31" s="30" t="s">
         <v>33</v>
@@ -12397,30 +12407,30 @@
       <c r="M31" s="31"/>
     </row>
     <row r="32" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="52"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="23" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H32" s="27"/>
       <c r="I32" s="28"/>
       <c r="J32" s="19"/>
       <c r="K32" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L32" s="30" t="s">
         <v>33</v>
@@ -12428,18 +12438,18 @@
       <c r="M32" s="31"/>
     </row>
     <row r="33" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="52"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="24" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>5</v>
@@ -12449,11 +12459,11 @@
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L33" s="30" t="s">
         <v>33</v>
@@ -12461,18 +12471,18 @@
       <c r="M33" s="31"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="52"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="25" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>5</v>
@@ -12484,7 +12494,7 @@
       <c r="I34" s="10"/>
       <c r="J34" s="9"/>
       <c r="K34" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L34" s="30" t="s">
         <v>33</v>
@@ -12492,11 +12502,11 @@
       <c r="M34" s="31"/>
     </row>
     <row r="35" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A35" s="51" t="s">
-        <v>45</v>
+      <c r="A35" s="50" t="s">
+        <v>44</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>29</v>
@@ -12505,7 +12515,7 @@
         <v>14</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>30</v>
@@ -12513,11 +12523,11 @@
       <c r="G35" s="21"/>
       <c r="H35" s="19"/>
       <c r="I35" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L35" s="30" t="s">
         <v>33</v>
@@ -12525,18 +12535,18 @@
       <c r="M35" s="32"/>
     </row>
     <row r="36" spans="1:13" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="51"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="23" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>5</v>
@@ -12548,7 +12558,7 @@
       <c r="I36" s="4"/>
       <c r="J36" s="2"/>
       <c r="K36" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L36" s="30" t="s">
         <v>33</v>
@@ -12556,18 +12566,18 @@
       <c r="M36" s="31"/>
     </row>
     <row r="37" spans="1:13" ht="285" x14ac:dyDescent="0.2">
-      <c r="A37" s="51"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>5</v>
@@ -12577,7 +12587,7 @@
       <c r="I37" s="4"/>
       <c r="J37" s="2"/>
       <c r="K37" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L37" s="30" t="s">
         <v>33</v>
@@ -12585,30 +12595,30 @@
       <c r="M37" s="31"/>
     </row>
     <row r="38" spans="1:13" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="52"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="23" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="13"/>
       <c r="J38" s="2"/>
       <c r="K38" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L38" s="30" t="s">
         <v>33</v>
@@ -12616,30 +12626,30 @@
       <c r="M38" s="31"/>
     </row>
     <row r="39" spans="1:13" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="52"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="23" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H39" s="27"/>
       <c r="I39" s="28"/>
       <c r="J39" s="19"/>
       <c r="K39" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L39" s="30" t="s">
         <v>33</v>
@@ -12647,18 +12657,18 @@
       <c r="M39" s="31"/>
     </row>
     <row r="40" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A40" s="52"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="24" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>5</v>
@@ -12668,11 +12678,11 @@
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L40" s="30" t="s">
         <v>33</v>
@@ -12680,18 +12690,18 @@
       <c r="M40" s="31"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="52"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="25" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F41" s="16" t="s">
         <v>5</v>
@@ -12703,7 +12713,7 @@
       <c r="I41" s="10"/>
       <c r="J41" s="9"/>
       <c r="K41" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L41" s="30" t="s">
         <v>33</v>
@@ -12711,20 +12721,20 @@
       <c r="M41" s="31"/>
     </row>
     <row r="42" spans="1:13" ht="57" x14ac:dyDescent="0.2">
-      <c r="A42" s="51" t="s">
-        <v>46</v>
+      <c r="A42" s="50" t="s">
+        <v>45</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F42" s="18" t="s">
         <v>30</v>
@@ -12732,11 +12742,11 @@
       <c r="G42" s="21"/>
       <c r="H42" s="19"/>
       <c r="I42" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="36" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="L42" s="30" t="s">
         <v>33</v>
@@ -12744,18 +12754,18 @@
       <c r="M42" s="32"/>
     </row>
     <row r="43" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="51"/>
+      <c r="A43" s="50"/>
       <c r="B43" s="23" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>5</v>
@@ -12767,7 +12777,7 @@
       <c r="I43" s="4"/>
       <c r="J43" s="2"/>
       <c r="K43" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L43" s="30" t="s">
         <v>33</v>
@@ -12775,18 +12785,18 @@
       <c r="M43" s="31"/>
     </row>
     <row r="44" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="51"/>
+      <c r="A44" s="50"/>
       <c r="B44" s="23" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F44" s="18" t="s">
         <v>5</v>
@@ -12796,7 +12806,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="2"/>
       <c r="K44" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L44" s="30" t="s">
         <v>33</v>
@@ -12804,30 +12814,30 @@
       <c r="M44" s="31"/>
     </row>
     <row r="45" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="52"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="23" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="13"/>
       <c r="J45" s="2"/>
       <c r="K45" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L45" s="30" t="s">
         <v>33</v>
@@ -12835,30 +12845,30 @@
       <c r="M45" s="31"/>
     </row>
     <row r="46" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="52"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="23" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F46" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H46" s="27"/>
       <c r="I46" s="28"/>
       <c r="J46" s="19"/>
       <c r="K46" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L46" s="30" t="s">
         <v>33</v>
@@ -12866,30 +12876,30 @@
       <c r="M46" s="31"/>
     </row>
     <row r="47" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="52"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="37" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C47" s="38" t="s">
         <v>4</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E47" s="39" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F47" s="40" t="s">
         <v>5</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H47" s="42"/>
       <c r="I47" s="43"/>
       <c r="J47" s="44"/>
       <c r="K47" s="45" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="L47" s="46" t="s">
         <v>33</v>
@@ -12897,18 +12907,18 @@
       <c r="M47" s="47"/>
     </row>
     <row r="48" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="52"/>
+      <c r="A48" s="51"/>
       <c r="B48" s="24" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F48" s="18" t="s">
         <v>5</v>
@@ -12918,11 +12928,11 @@
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="10" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L48" s="30" t="s">
         <v>33</v>
@@ -12930,18 +12940,18 @@
       <c r="M48" s="31"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="52"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="25" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F49" s="16" t="s">
         <v>5</v>
@@ -12953,7 +12963,7 @@
       <c r="I49" s="10"/>
       <c r="J49" s="9"/>
       <c r="K49" s="11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="L49" s="30" t="s">
         <v>33</v>
@@ -12961,20 +12971,20 @@
       <c r="M49" s="31"/>
     </row>
     <row r="50" spans="1:13" ht="114" x14ac:dyDescent="0.2">
-      <c r="A50" s="51" t="s">
+      <c r="A50" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F50" s="18" t="s">
         <v>30</v>
@@ -12982,11 +12992,11 @@
       <c r="G50" s="21"/>
       <c r="H50" s="19"/>
       <c r="I50" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L50" s="30" t="s">
         <v>33</v>
@@ -12994,18 +13004,18 @@
       <c r="M50" s="32"/>
     </row>
     <row r="51" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="51"/>
+      <c r="A51" s="50"/>
       <c r="B51" s="23" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F51" s="18" t="s">
         <v>5</v>
@@ -13017,7 +13027,7 @@
       <c r="I51" s="4"/>
       <c r="J51" s="2"/>
       <c r="K51" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="L51" s="30" t="s">
         <v>33</v>
@@ -13025,18 +13035,18 @@
       <c r="M51" s="31"/>
     </row>
     <row r="52" spans="1:13" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="51"/>
+      <c r="A52" s="50"/>
       <c r="B52" s="23" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F52" s="18" t="s">
         <v>5</v>
@@ -13046,7 +13056,7 @@
       <c r="I52" s="4"/>
       <c r="J52" s="2"/>
       <c r="K52" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L52" s="30" t="s">
         <v>33</v>
@@ -13054,30 +13064,30 @@
       <c r="M52" s="31"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="52"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="23" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F53" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="13"/>
       <c r="J53" s="2"/>
       <c r="K53" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L53" s="30" t="s">
         <v>33</v>
@@ -13085,30 +13095,30 @@
       <c r="M53" s="31"/>
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="52"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="23" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F54" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H54" s="27"/>
       <c r="I54" s="28"/>
       <c r="J54" s="19"/>
       <c r="K54" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L54" s="30" t="s">
         <v>33</v>
@@ -13116,18 +13126,18 @@
       <c r="M54" s="31"/>
     </row>
     <row r="55" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="52"/>
+      <c r="A55" s="51"/>
       <c r="B55" s="24" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F55" s="18" t="s">
         <v>5</v>
@@ -13137,11 +13147,11 @@
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="10" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L55" s="30" t="s">
         <v>33</v>
@@ -13149,18 +13159,18 @@
       <c r="M55" s="31"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="52"/>
+      <c r="A56" s="51"/>
       <c r="B56" s="25" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F56" s="16" t="s">
         <v>5</v>
@@ -13172,7 +13182,7 @@
       <c r="I56" s="10"/>
       <c r="J56" s="9"/>
       <c r="K56" s="11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="L56" s="30" t="s">
         <v>33</v>
@@ -13180,20 +13190,20 @@
       <c r="M56" s="31"/>
     </row>
     <row r="57" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="51" t="s">
-        <v>206</v>
+      <c r="A57" s="50" t="s">
+        <v>199</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F57" s="18" t="s">
         <v>30</v>
@@ -13201,11 +13211,11 @@
       <c r="G57" s="21"/>
       <c r="H57" s="19"/>
       <c r="I57" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L57" s="30" t="s">
         <v>33</v>
@@ -13213,18 +13223,18 @@
       <c r="M57" s="32"/>
     </row>
     <row r="58" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="51"/>
+      <c r="A58" s="50"/>
       <c r="B58" s="23" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F58" s="18" t="s">
         <v>5</v>
@@ -13236,7 +13246,7 @@
       <c r="I58" s="4"/>
       <c r="J58" s="2"/>
       <c r="K58" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="L58" s="30" t="s">
         <v>33</v>
@@ -13244,18 +13254,18 @@
       <c r="M58" s="31"/>
     </row>
     <row r="59" spans="1:13" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="51"/>
+      <c r="A59" s="50"/>
       <c r="B59" s="23" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F59" s="18" t="s">
         <v>5</v>
@@ -13265,7 +13275,7 @@
       <c r="I59" s="4"/>
       <c r="J59" s="2"/>
       <c r="K59" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="L59" s="30" t="s">
         <v>33</v>
@@ -13273,30 +13283,30 @@
       <c r="M59" s="31"/>
     </row>
     <row r="60" spans="1:13" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="52"/>
+      <c r="A60" s="51"/>
       <c r="B60" s="23" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F60" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="13"/>
       <c r="J60" s="2"/>
       <c r="K60" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="L60" s="30" t="s">
         <v>33</v>
@@ -13304,30 +13314,30 @@
       <c r="M60" s="31"/>
     </row>
     <row r="61" spans="1:13" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="52"/>
+      <c r="A61" s="51"/>
       <c r="B61" s="23" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F61" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G61" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H61" s="27"/>
       <c r="I61" s="28"/>
       <c r="J61" s="19"/>
       <c r="K61" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="L61" s="30" t="s">
         <v>33</v>
@@ -13335,18 +13345,18 @@
       <c r="M61" s="31"/>
     </row>
     <row r="62" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="52"/>
+      <c r="A62" s="51"/>
       <c r="B62" s="24" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F62" s="18" t="s">
         <v>5</v>
@@ -13356,11 +13366,11 @@
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="10" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L62" s="30" t="s">
         <v>33</v>
@@ -13368,18 +13378,18 @@
       <c r="M62" s="31"/>
     </row>
     <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="52"/>
+      <c r="A63" s="51"/>
       <c r="B63" s="25" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F63" s="16" t="s">
         <v>5</v>
@@ -13391,7 +13401,7 @@
       <c r="I63" s="10"/>
       <c r="J63" s="9"/>
       <c r="K63" s="11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="L63" s="30" t="s">
         <v>33</v>
@@ -13400,11 +13410,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="A50:A56"/>
     <mergeCell ref="A57:A63"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="B1:B2"/>
@@ -13417,6 +13422,11 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="A9:A20"/>
     <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A50:A56"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/06-최종산출물/BackEndAPI/api 정의서v0.6.xlsx
+++ b/06-최종산출물/BackEndAPI/api 정의서v0.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUIK\Documents\GitHub\KSA-final-project\06-최종산출물\BackEndAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A72EAE0-A2BA-438E-ACC0-2D757F0014B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F98786-5A0D-4BAA-9CB7-0EB3FF46F1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="262">
   <si>
     <t>Header</t>
   </si>
@@ -10526,7 +10526,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>해당</t>
+      <t>모든</t>
     </r>
     <r>
       <rPr>
@@ -10546,27 +10546,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>모든</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챌린지</t>
+      <t>챌린지 해당 userid 참가여부 포함</t>
     </r>
     <r>
       <rPr>
@@ -10589,6 +10569,337 @@
       <t>요청
 현재 참가중인 인원 Long current, 해당 유저의 챌린지 참가여부 Boolean isJoin, 챌린지 시작여부 Boolean isStart, 챌린지 시작인원 Long startingPeople값 포함 response</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>myChallengeGetById</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/challenge/my/{id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참가여부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Boolean isJoin, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시작여부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Boolean isStart, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시작인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Long startingPeople,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">현재 챌린지 참가중인 인원 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Long currentpeople, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">오늘 인증을 완료한 인원 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Long todayProofPeople</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>값</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> response</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "challengeImg": [],
+  "currentPeople": 0,
+  "description": "string",
+  "endDate": "2022-04-22T08:47:04.763Z",
+  "frequency": 0,
+  "id": 0,
+  "max": 0,
+  "method": "string",
+  "point": 0,
+  "startDate": "2022-04-22T08:47:04.763Z",
+  "startingPeople": 0,
+  "title": "string",
+  "todayProofPeople": 0
+}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10596,7 +10907,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -10714,6 +11025,19 @@
       <name val="Arial Unicode MS"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -11160,12 +11484,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11199,6 +11517,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -11417,10 +11741,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11442,45 +11766,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="54" t="s">
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="54"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="52" t="s">
+      <c r="K1" s="52"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="65" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="64"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="58"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="56"/>
       <c r="G2" s="48" t="s">
         <v>31</v>
       </c>
@@ -11499,7 +11823,7 @@
       <c r="L2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="53"/>
+      <c r="M2" s="66"/>
     </row>
     <row r="3" spans="1:13" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A3" s="50" t="s">
@@ -12127,29 +12451,31 @@
       </c>
       <c r="M22" s="31"/>
     </row>
-    <row r="23" spans="1:13" ht="299.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A23" s="50"/>
       <c r="B23" s="23" t="s">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="49" t="s">
-        <v>256</v>
+        <v>259</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="21"/>
+      <c r="G23" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="H23" s="19"/>
       <c r="I23" s="4"/>
       <c r="J23" s="2"/>
       <c r="K23" s="4" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="L23" s="30" t="s">
         <v>33</v>
@@ -12157,27 +12483,25 @@
       <c r="M23" s="31"/>
     </row>
     <row r="24" spans="1:13" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>257</v>
+        <v>13</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>256</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="21" t="s">
-        <v>60</v>
-      </c>
+      <c r="G24" s="21"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="13"/>
+      <c r="I24" s="4"/>
       <c r="J24" s="2"/>
       <c r="K24" s="4" t="s">
         <v>253</v>
@@ -12187,157 +12511,159 @@
       </c>
       <c r="M24" s="31"/>
     </row>
-    <row r="25" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A25" s="51"/>
-      <c r="B25" s="24" t="s">
-        <v>81</v>
+      <c r="B25" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>155</v>
+        <v>80</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H25" s="19"/>
-      <c r="I25" s="4" t="s">
-        <v>127</v>
-      </c>
+      <c r="I25" s="13"/>
       <c r="J25" s="2"/>
       <c r="K25" s="4" t="s">
-        <v>85</v>
+        <v>253</v>
       </c>
       <c r="L25" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M25" s="31"/>
     </row>
-    <row r="26" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A26" s="51"/>
-      <c r="B26" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="9" t="s">
+      <c r="B26" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="F26" s="16" t="s">
+      <c r="E26" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="11" t="s">
-        <v>157</v>
+      <c r="H26" s="19"/>
+      <c r="I26" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="L26" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M26" s="31"/>
     </row>
-    <row r="27" spans="1:13" ht="57" x14ac:dyDescent="0.2">
-      <c r="A27" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="36" t="s">
-        <v>251</v>
+    <row r="27" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="51"/>
+      <c r="B27" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="L27" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="32"/>
+      <c r="M27" s="31"/>
     </row>
-    <row r="28" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="50"/>
-      <c r="B28" s="23" t="s">
-        <v>93</v>
+    <row r="28" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+      <c r="A28" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G28" s="21"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="4"/>
+      <c r="I28" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="4" t="s">
-        <v>95</v>
+      <c r="K28" s="36" t="s">
+        <v>251</v>
       </c>
       <c r="L28" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M28" s="31"/>
+      <c r="M28" s="32"/>
     </row>
-    <row r="29" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A29" s="50"/>
       <c r="B29" s="23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>159</v>
+        <v>94</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="21"/>
+      <c r="G29" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="H29" s="19"/>
       <c r="I29" s="4"/>
       <c r="J29" s="2"/>
       <c r="K29" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L29" s="30" t="s">
         <v>33</v>
@@ -12345,30 +12671,28 @@
       <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="21" t="s">
-        <v>107</v>
-      </c>
+      <c r="G30" s="21"/>
       <c r="H30" s="19"/>
-      <c r="I30" s="13"/>
+      <c r="I30" s="4"/>
       <c r="J30" s="2"/>
       <c r="K30" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L30" s="30" t="s">
         <v>33</v>
@@ -12378,26 +12702,26 @@
     <row r="31" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A31" s="51"/>
       <c r="B31" s="23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="19"/>
+        <v>107</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="2"/>
       <c r="K31" s="4" t="s">
         <v>101</v>
       </c>
@@ -12406,219 +12730,219 @@
       </c>
       <c r="M31" s="31"/>
     </row>
-    <row r="32" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A32" s="51"/>
       <c r="B32" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="H32" s="27"/>
       <c r="I32" s="28"/>
       <c r="J32" s="19"/>
       <c r="K32" s="4" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="L32" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M32" s="31"/>
     </row>
-    <row r="33" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A33" s="51"/>
-      <c r="B33" s="24" t="s">
-        <v>109</v>
+      <c r="B33" s="23" t="s">
+        <v>105</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="J33" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="19"/>
       <c r="K33" s="4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L33" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M33" s="31"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="51"/>
-      <c r="B34" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="9" t="s">
+      <c r="B34" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="F34" s="16" t="s">
+      <c r="E34" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F34" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="11" t="s">
-        <v>69</v>
+      <c r="H34" s="19"/>
+      <c r="I34" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="L34" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M34" s="31"/>
     </row>
-    <row r="35" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A35" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" s="21"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="5" t="s">
-        <v>87</v>
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="51"/>
+      <c r="B35" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="L35" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M35" s="32"/>
+      <c r="M35" s="31"/>
     </row>
-    <row r="36" spans="1:13" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="50"/>
-      <c r="B36" s="23" t="s">
-        <v>113</v>
+    <row r="36" spans="1:13" ht="171" x14ac:dyDescent="0.2">
+      <c r="A36" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G36" s="21"/>
       <c r="H36" s="19"/>
-      <c r="I36" s="4"/>
+      <c r="I36" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="J36" s="2"/>
-      <c r="K36" s="4" t="s">
-        <v>115</v>
+      <c r="K36" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="L36" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M36" s="31"/>
+      <c r="M36" s="32"/>
     </row>
-    <row r="37" spans="1:13" ht="285" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A37" s="50"/>
       <c r="B37" s="23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>167</v>
+        <v>114</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="21"/>
+      <c r="G37" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="H37" s="19"/>
       <c r="I37" s="4"/>
       <c r="J37" s="2"/>
       <c r="K37" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L37" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M37" s="31"/>
     </row>
-    <row r="38" spans="1:13" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="51"/>
+    <row r="38" spans="1:13" ht="285" x14ac:dyDescent="0.2">
+      <c r="A38" s="50"/>
       <c r="B38" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>168</v>
+        <v>117</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="21" t="s">
-        <v>60</v>
-      </c>
+      <c r="G38" s="21"/>
       <c r="H38" s="19"/>
-      <c r="I38" s="13"/>
+      <c r="I38" s="4"/>
       <c r="J38" s="2"/>
       <c r="K38" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L38" s="30" t="s">
         <v>33</v>
@@ -12628,26 +12952,26 @@
     <row r="39" spans="1:13" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A39" s="51"/>
       <c r="B39" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>169</v>
+        <v>119</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="H39" s="27"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="19"/>
+        <v>60</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="2"/>
       <c r="K39" s="4" t="s">
         <v>124</v>
       </c>
@@ -12656,157 +12980,159 @@
       </c>
       <c r="M39" s="31"/>
     </row>
-    <row r="40" spans="1:13" ht="171" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A40" s="51"/>
-      <c r="B40" s="24" t="s">
-        <v>125</v>
+      <c r="B40" s="23" t="s">
+        <v>120</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="J40" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="H40" s="27"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="19"/>
       <c r="K40" s="4" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="L40" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M40" s="31"/>
     </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="171" x14ac:dyDescent="0.2">
       <c r="A41" s="51"/>
-      <c r="B41" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="9" t="s">
+      <c r="B41" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F41" s="16" t="s">
+      <c r="E41" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="20"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="11" t="s">
-        <v>69</v>
+      <c r="H41" s="19"/>
+      <c r="I41" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="L41" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M41" s="31"/>
     </row>
-    <row r="42" spans="1:13" ht="57" x14ac:dyDescent="0.2">
-      <c r="A42" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="J42" s="2"/>
-      <c r="K42" s="36" t="s">
-        <v>223</v>
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="51"/>
+      <c r="B42" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="L42" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M42" s="32"/>
+      <c r="M42" s="31"/>
     </row>
-    <row r="43" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="50"/>
-      <c r="B43" s="23" t="s">
-        <v>131</v>
+    <row r="43" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+      <c r="A43" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G43" s="21"/>
       <c r="H43" s="19"/>
-      <c r="I43" s="4"/>
+      <c r="I43" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="J43" s="2"/>
-      <c r="K43" s="4" t="s">
-        <v>138</v>
+      <c r="K43" s="36" t="s">
+        <v>223</v>
       </c>
       <c r="L43" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M43" s="31"/>
+      <c r="M43" s="32"/>
     </row>
-    <row r="44" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A44" s="50"/>
       <c r="B44" s="23" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>173</v>
+        <v>132</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="F44" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="21"/>
+      <c r="G44" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="H44" s="19"/>
       <c r="I44" s="4"/>
       <c r="J44" s="2"/>
       <c r="K44" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L44" s="30" t="s">
         <v>33</v>
@@ -12814,30 +13140,28 @@
       <c r="M44" s="31"/>
     </row>
     <row r="45" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="51"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="21" t="s">
-        <v>190</v>
-      </c>
+      <c r="G45" s="21"/>
       <c r="H45" s="19"/>
-      <c r="I45" s="13"/>
+      <c r="I45" s="4"/>
       <c r="J45" s="2"/>
       <c r="K45" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L45" s="30" t="s">
         <v>33</v>
@@ -12847,247 +13171,247 @@
     <row r="46" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A46" s="51"/>
       <c r="B46" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F46" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H46" s="27"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="19"/>
+        <v>190</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="2"/>
       <c r="K46" s="4" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="L46" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M46" s="31"/>
     </row>
-    <row r="47" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A47" s="51"/>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H47" s="27"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L47" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="M47" s="31"/>
+    </row>
+    <row r="48" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="51"/>
+      <c r="B48" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="C47" s="38" t="s">
+      <c r="C48" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="39" t="s">
+      <c r="D48" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="E47" s="39" t="s">
+      <c r="E48" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="F47" s="40" t="s">
+      <c r="F48" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="41" t="s">
+      <c r="G48" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="H47" s="42"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="45" t="s">
+      <c r="H48" s="42"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="L47" s="46" t="s">
+      <c r="L48" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="M47" s="47"/>
+      <c r="M48" s="47"/>
     </row>
-    <row r="48" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="51"/>
-      <c r="B48" s="24" t="s">
+    <row r="49" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="51"/>
+      <c r="B49" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F49" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="21" t="s">
+      <c r="G49" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="10" t="s">
+      <c r="H49" s="19"/>
+      <c r="I49" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="J48" s="2"/>
-      <c r="K48" s="4" t="s">
+      <c r="J49" s="2"/>
+      <c r="K49" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="L48" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="M48" s="31"/>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="51"/>
-      <c r="B49" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H49" s="20"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="11" t="s">
-        <v>157</v>
       </c>
       <c r="L49" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M49" s="31"/>
     </row>
-    <row r="50" spans="1:13" ht="114" x14ac:dyDescent="0.2">
-      <c r="A50" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" s="21"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="J50" s="2"/>
-      <c r="K50" s="5" t="s">
-        <v>87</v>
+    <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="51"/>
+      <c r="B50" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="L50" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M50" s="32"/>
+      <c r="M50" s="31"/>
     </row>
-    <row r="51" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="50"/>
-      <c r="B51" s="23" t="s">
-        <v>182</v>
+    <row r="51" spans="1:13" ht="114" x14ac:dyDescent="0.2">
+      <c r="A51" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G51" s="21" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G51" s="21"/>
       <c r="H51" s="19"/>
-      <c r="I51" s="4"/>
+      <c r="I51" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="J51" s="2"/>
-      <c r="K51" s="4" t="s">
-        <v>189</v>
+      <c r="K51" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="L51" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M51" s="31"/>
+      <c r="M51" s="32"/>
     </row>
-    <row r="52" spans="1:13" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A52" s="50"/>
       <c r="B52" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>229</v>
+        <v>193</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="F52" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="21"/>
+      <c r="G52" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="H52" s="19"/>
       <c r="I52" s="4"/>
       <c r="J52" s="2"/>
       <c r="K52" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L52" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M52" s="31"/>
     </row>
-    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="51"/>
+    <row r="53" spans="1:13" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="50"/>
       <c r="B53" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F53" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G53" s="21" t="s">
-        <v>196</v>
-      </c>
+      <c r="G53" s="21"/>
       <c r="H53" s="19"/>
-      <c r="I53" s="13"/>
+      <c r="I53" s="4"/>
       <c r="J53" s="2"/>
       <c r="K53" s="4" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="L53" s="30" t="s">
         <v>33</v>
@@ -13097,26 +13421,26 @@
     <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="51"/>
       <c r="B54" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F54" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H54" s="27"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="19"/>
+        <v>196</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="2"/>
       <c r="K54" s="4" t="s">
         <v>101</v>
       </c>
@@ -13125,157 +13449,159 @@
       </c>
       <c r="M54" s="31"/>
     </row>
-    <row r="55" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="51"/>
-      <c r="B55" s="24" t="s">
-        <v>186</v>
+      <c r="B55" s="23" t="s">
+        <v>185</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F55" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="J55" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="H55" s="27"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="19"/>
       <c r="K55" s="4" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="L55" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M55" s="31"/>
     </row>
-    <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A56" s="51"/>
-      <c r="B56" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="9" t="s">
+      <c r="B56" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="F56" s="16" t="s">
+      <c r="E56" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F56" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H56" s="20"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="11" t="s">
-        <v>157</v>
+      <c r="H56" s="19"/>
+      <c r="I56" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="J56" s="2"/>
+      <c r="K56" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="L56" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M56" s="31"/>
     </row>
-    <row r="57" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="F57" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G57" s="21"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="J57" s="2"/>
-      <c r="K57" s="5" t="s">
-        <v>87</v>
+    <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="51"/>
+      <c r="B57" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="L57" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M57" s="32"/>
+      <c r="M57" s="31"/>
     </row>
-    <row r="58" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="50"/>
-      <c r="B58" s="23" t="s">
-        <v>201</v>
+    <row r="58" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>200</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="21" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G58" s="21"/>
       <c r="H58" s="19"/>
-      <c r="I58" s="4"/>
+      <c r="I58" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="J58" s="2"/>
-      <c r="K58" s="4" t="s">
-        <v>214</v>
+      <c r="K58" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="L58" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M58" s="31"/>
+      <c r="M58" s="32"/>
     </row>
-    <row r="59" spans="1:13" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A59" s="50"/>
       <c r="B59" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>236</v>
+        <v>207</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="F59" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="21"/>
+      <c r="G59" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="H59" s="19"/>
       <c r="I59" s="4"/>
       <c r="J59" s="2"/>
       <c r="K59" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L59" s="30" t="s">
         <v>33</v>
@@ -13283,27 +13609,25 @@
       <c r="M59" s="31"/>
     </row>
     <row r="60" spans="1:13" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="51"/>
+      <c r="A60" s="50"/>
       <c r="B60" s="23" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F60" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G60" s="21" t="s">
-        <v>190</v>
-      </c>
+      <c r="G60" s="21"/>
       <c r="H60" s="19"/>
-      <c r="I60" s="13"/>
+      <c r="I60" s="4"/>
       <c r="J60" s="2"/>
       <c r="K60" s="4" t="s">
         <v>215</v>
@@ -13316,26 +13640,26 @@
     <row r="61" spans="1:13" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A61" s="51"/>
       <c r="B61" s="23" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F61" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G61" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H61" s="27"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="19"/>
+        <v>190</v>
+      </c>
+      <c r="H61" s="19"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="2"/>
       <c r="K61" s="4" t="s">
         <v>215</v>
       </c>
@@ -13344,73 +13668,108 @@
       </c>
       <c r="M61" s="31"/>
     </row>
-    <row r="62" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A62" s="51"/>
-      <c r="B62" s="24" t="s">
-        <v>204</v>
+      <c r="B62" s="23" t="s">
+        <v>203</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F62" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G62" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="J62" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="H62" s="27"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="19"/>
       <c r="K62" s="4" t="s">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="L62" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M62" s="31"/>
     </row>
-    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A63" s="51"/>
-      <c r="B63" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="9" t="s">
+      <c r="B63" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E63" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="F63" s="16" t="s">
+      <c r="E63" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F63" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G63" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H63" s="20"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="11" t="s">
-        <v>157</v>
+      <c r="H63" s="19"/>
+      <c r="I63" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="J63" s="2"/>
+      <c r="K63" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="L63" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M63" s="31"/>
+    </row>
+    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="51"/>
+      <c r="B64" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="L64" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="M64" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="A51:A57"/>
+    <mergeCell ref="A58:A64"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:F2"/>
@@ -13421,12 +13780,8 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="A9:A20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/06-최종산출물/BackEndAPI/api 정의서v0.6.xlsx
+++ b/06-최종산출물/BackEndAPI/api 정의서v0.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUIK\Documents\GitHub\KSA-final-project\06-최종산출물\BackEndAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F98786-5A0D-4BAA-9CB7-0EB3FF46F1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A5F325-808E-4F4A-AFE0-E8121D216361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="267">
   <si>
     <t>Header</t>
   </si>
@@ -312,34 +312,6 @@
   </si>
   <si>
     <t>Error : {message}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "averageSmoking": 0,
-  "badgeId": 0,
-  "birthYear": "2022-04-16",
-  "chat": [],
-  "comment": "string",
-  "customChallenge": [],
-  "gender": "string",
-  "id": 0,
-  "inviteCaller": [],
-  "inviteUser": [],
-  "likes": [],
-  "point": 0,
-  "popupImg": "string",
-  "post": [],
-  "price": 0,
-  "profileImg": "string",
-  "proof": [],
-  "ranking": 0,
-  "smoking": [],
-  "smokingYear": 0,
-  "userChallenge": [],
-  "userCustom": [],
-  "userName": "string"
-}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -441,36 +413,6 @@
     "id": 0,
     "provider": "string",
     "userId": 0
-  }
-]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[
-  {
-  "averageSmoking": 0,
-  "badgeId": 0,
-  "birthYear": "2022-04-16",
-  "chat": [],
-  "comment": "string",
-  "customChallenge": [],
-  "gender": "string",
-  "id": 0,
-  "inviteCaller": [],
-  "inviteUser": [],
-  "likes": [],
-  "point": 0,
-  "popupImg": "string",
-  "post": [],
-  "price": 0,
-  "profileImg": "string",
-  "proof": [],
-  "ranking": 0,
-  "smoking": [],
-  "smokingYear": 0,
-  "userChallenge": [],
-  "userCustom": [],
-  "userName": "string"
   }
 ]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5883,83 +5825,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>유저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>커스텀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>등록</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">int 1 = </t>
     </r>
     <r>
@@ -9933,955 +9798,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>현재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참가중인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Long current, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참가여부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Boolean isJoin, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시작여부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Boolean isStart, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시작인원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Long startingPeople</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>값</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>포함</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> response</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모든</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> List </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>현재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참가중인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> Long current,  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시작여부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> Boolean isStart, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시작인원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> Long startingPeople</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>값</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>포함</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> response</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>userId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모든</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챌린지 해당 userid 참가여부 포함</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> List </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>요청
-현재 참가중인 인원 Long current, 해당 유저의 챌린지 참가여부 Boolean isJoin, 챌린지 시작여부 Boolean isStart, 챌린지 시작인원 Long startingPeople값 포함 response</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>myChallengeGetById</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/api/challenge/my/{id}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참가여부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Boolean isJoin, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시작여부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Boolean isStart, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시작인원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Long startingPeople,  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">현재 챌린지 참가중인 인원 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Long currentpeople, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">오늘 인증을 완료한 인원 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Long todayProofPeople</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>값</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>포함</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> response</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -10902,12 +9823,2576 @@
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>{
+  "averageSmoking": 0,
+  "badgeId": 0,
+  "birthYear": "2022-04-16",
+  "chat": [],
+  "comment": "string",
+  "customChallenge": [],
+  "gender": "string",
+  "id": 0,
+  "inviteCaller": [],
+  "inviteUser": [],
+  "likes": [],
+  "point": 0,
+  "popupImg": "string",
+  "post": [],
+  "price": 0,
+  "completedChallenge : 0,
+  "failedChallenge : 0,
+  "profileImg": "string",
+  "proof": [],
+  "ranking": 0,
+  "smoking": [],
+  "smokingYear": 0,
+  "userChallenge": [],
+  "userCustom": [],
+  "userName": "string"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+  "averageSmoking": 0,
+  "badgeId": 0,
+  "birthYear": "2022-04-16",
+  "chat": [],
+  "comment": "string",
+  "customChallenge": [],
+  "gender": "string",
+  "id": 0,
+  "inviteCaller": [],
+  "inviteUser": [],
+  "likes": [],
+  "point": 0,
+  "popupImg": "string",
+  "post": [],
+  "price": 0,
+  "completedChallenge : 0,
+  "failedChallenge : 0,
+  "profileImg": "string",
+  "proof": [],
+  "ranking": 0,
+  "smoking": [],
+  "smokingYear": 0,
+  "userChallenge": [],
+  "userCustom": [],
+  "userName": "string"
+  }
+]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "currentPeople": 0,
+  "description": "string",
+  "endDate": "2022-04-25T08:41:55.583Z",
+  "frequency": 0,
+  "id": 0,
+  "max": 0,
+  "method": "string",
+  "point": 0,
+  "startDate": "2022-04-25T08:41:55.583Z",
+  "startingPeople": 0,
+  "summary": "string",
+  "title": "string"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>challengeGetByUserId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/challenge/user/{userId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참가중인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Long current, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참가여부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Boolean isJoin, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시작여부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Boolean isStart, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시작인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Long startingPeople</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>값</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>포함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> response</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참가여부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Boolean isJoin, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시작여부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Boolean isStart, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시작인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Long startingPeople,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참가중인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Long currentpeople, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>오늘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인증을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>완료한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Long todayProofPeople</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>값</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>포함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> response</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>userId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참가여부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Boolean isJoin, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시작여부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Boolean isStart, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시작인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Long startingPeople,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참가중인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Long currentpeople, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>오늘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인증을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>완료한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Long todayProofPeople</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>값</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>포함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> response</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> List </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참가중인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Long current,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시작여부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Boolean isStart, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시작인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Long startingPeople</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>값</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>포함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> response</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>userId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> userid </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참가여부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>포함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> List </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요청
+현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참가중인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Long current, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>유저의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참가여부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Boolean isJoin, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시작여부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Boolean isStart, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시작인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Long startingPeople</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>값</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>포함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> response</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>커스텀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> userId, customChallengeId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>값을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>가진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> invite(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>초대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>자동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int 1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int 3 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>초대자와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수신자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>동일로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int 4 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이미</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>존재하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>초대장이라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int 5 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수신자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이미</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>커스텀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참가중이라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int -1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -11006,41 +12491,8 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11116,6 +12568,16 @@
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
+    </fill>
+    <fill>
+      <gradientFill>
+        <stop position="0">
+          <color theme="6" tint="0.80001220740379042"/>
+        </stop>
+        <stop position="1">
+          <color theme="5" tint="0.80001220740379042"/>
+        </stop>
+      </gradientFill>
     </fill>
   </fills>
   <borders count="18">
@@ -11477,8 +12939,11 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11517,10 +12982,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11741,10 +13203,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11766,45 +13228,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="52" t="s">
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="65" t="s">
-        <v>104</v>
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="49" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="62"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="56"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="57"/>
       <c r="G2" s="48" t="s">
         <v>31</v>
       </c>
@@ -11812,7 +13274,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J2" s="34" t="s">
         <v>0</v>
@@ -11823,10 +13285,10 @@
       <c r="L2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="66"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:13" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="22" t="s">
@@ -11839,7 +13301,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>30</v>
@@ -11847,19 +13309,19 @@
       <c r="G3" s="15"/>
       <c r="H3" s="2"/>
       <c r="I3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L3" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M3" s="31"/>
     </row>
-    <row r="4" spans="1:13" ht="356.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
+    <row r="4" spans="1:13" ht="384.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="51"/>
       <c r="B4" s="23" t="s">
         <v>15</v>
       </c>
@@ -11870,7 +13332,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>5</v>
@@ -11882,26 +13344,26 @@
       <c r="I4" s="4"/>
       <c r="J4" s="2"/>
       <c r="K4" s="4" t="s">
-        <v>34</v>
+        <v>255</v>
       </c>
       <c r="L4" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M4" s="31"/>
     </row>
-    <row r="5" spans="1:13" ht="384.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
+    <row r="5" spans="1:13" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="51"/>
       <c r="B5" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>5</v>
@@ -11911,7 +13373,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="2"/>
       <c r="K5" s="4" t="s">
-        <v>53</v>
+        <v>256</v>
       </c>
       <c r="L5" s="30" t="s">
         <v>33</v>
@@ -11919,30 +13381,30 @@
       <c r="M5" s="31"/>
     </row>
     <row r="6" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="13"/>
       <c r="J6" s="2"/>
       <c r="K6" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L6" s="30" t="s">
         <v>33</v>
@@ -11950,9 +13412,9 @@
       <c r="M6" s="31"/>
     </row>
     <row r="7" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="51"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -11961,7 +13423,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>5</v>
@@ -11971,11 +13433,11 @@
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L7" s="30" t="s">
         <v>33</v>
@@ -11983,9 +13445,9 @@
       <c r="M7" s="31"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>7</v>
@@ -11994,7 +13456,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>5</v>
@@ -12006,7 +13468,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="9"/>
       <c r="K8" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L8" s="30" t="s">
         <v>33</v>
@@ -12014,7 +13476,7 @@
       <c r="M8" s="31"/>
     </row>
     <row r="9" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="51" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="29" t="s">
@@ -12027,7 +13489,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>30</v>
@@ -12035,11 +13497,11 @@
       <c r="G9" s="21"/>
       <c r="H9" s="19"/>
       <c r="I9" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L9" s="30" t="s">
         <v>33</v>
@@ -12047,18 +13509,18 @@
       <c r="M9" s="31"/>
     </row>
     <row r="10" spans="1:13" ht="57" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>5</v>
@@ -12066,11 +13528,11 @@
       <c r="G10" s="21"/>
       <c r="H10" s="19"/>
       <c r="I10" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L10" s="30" t="s">
         <v>33</v>
@@ -12078,18 +13540,18 @@
       <c r="M10" s="31"/>
     </row>
     <row r="11" spans="1:13" ht="57" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="29" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>5</v>
@@ -12097,11 +13559,11 @@
       <c r="G11" s="21"/>
       <c r="H11" s="19"/>
       <c r="I11" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L11" s="30" t="s">
         <v>33</v>
@@ -12109,18 +13571,18 @@
       <c r="M11" s="31"/>
     </row>
     <row r="12" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>5</v>
@@ -12132,7 +13594,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="2"/>
       <c r="K12" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L12" s="30" t="s">
         <v>33</v>
@@ -12140,18 +13602,18 @@
       <c r="M12" s="31"/>
     </row>
     <row r="13" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>5</v>
@@ -12161,7 +13623,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="2"/>
       <c r="K13" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L13" s="30" t="s">
         <v>33</v>
@@ -12169,7 +13631,7 @@
       <c r="M13" s="31"/>
     </row>
     <row r="14" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="23" t="s">
         <v>11</v>
       </c>
@@ -12177,22 +13639,22 @@
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="28"/>
       <c r="J14" s="19"/>
       <c r="K14" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L14" s="30" t="s">
         <v>33</v>
@@ -12200,30 +13662,30 @@
       <c r="M14" s="31"/>
     </row>
     <row r="15" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="28"/>
       <c r="J15" s="19"/>
       <c r="K15" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L15" s="30" t="s">
         <v>33</v>
@@ -12231,7 +13693,7 @@
       <c r="M15" s="31"/>
     </row>
     <row r="16" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="23" t="s">
         <v>17</v>
       </c>
@@ -12239,22 +13701,22 @@
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="28"/>
       <c r="J16" s="19"/>
       <c r="K16" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L16" s="30" t="s">
         <v>33</v>
@@ -12262,30 +13724,30 @@
       <c r="M16" s="31"/>
     </row>
     <row r="17" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="28"/>
       <c r="J17" s="19"/>
       <c r="K17" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L17" s="30" t="s">
         <v>33</v>
@@ -12293,30 +13755,30 @@
       <c r="M17" s="31"/>
     </row>
     <row r="18" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="28"/>
       <c r="J18" s="19"/>
       <c r="K18" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L18" s="30" t="s">
         <v>33</v>
@@ -12324,18 +13786,18 @@
       <c r="M18" s="31"/>
     </row>
     <row r="19" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>5</v>
@@ -12345,11 +13807,11 @@
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L19" s="30" t="s">
         <v>33</v>
@@ -12357,18 +13819,18 @@
       <c r="M19" s="31"/>
     </row>
     <row r="20" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>5</v>
@@ -12380,7 +13842,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="9"/>
       <c r="K20" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L20" s="30" t="s">
         <v>33</v>
@@ -12388,32 +13850,32 @@
       <c r="M20" s="31"/>
     </row>
     <row r="21" spans="1:13" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="51" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="19"/>
       <c r="I21" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L21" s="30" t="s">
         <v>33</v>
@@ -12421,18 +13883,18 @@
       <c r="M21" s="31"/>
     </row>
     <row r="22" spans="1:13" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="50"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>5</v>
@@ -12444,7 +13906,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="2"/>
       <c r="K22" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L22" s="30" t="s">
         <v>33</v>
@@ -12452,18 +13914,18 @@
       <c r="M22" s="31"/>
     </row>
     <row r="23" spans="1:13" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="23" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>5</v>
@@ -12475,36 +13937,38 @@
       <c r="I23" s="4"/>
       <c r="J23" s="2"/>
       <c r="K23" s="4" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="L23" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M23" s="31"/>
     </row>
-    <row r="24" spans="1:13" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
+    <row r="24" spans="1:13" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="51"/>
       <c r="B24" s="23" t="s">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="49" t="s">
-        <v>256</v>
+        <v>259</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="21"/>
+      <c r="G24" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="H24" s="19"/>
       <c r="I24" s="4"/>
       <c r="J24" s="2"/>
       <c r="K24" s="4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L24" s="30" t="s">
         <v>33</v>
@@ -12514,185 +13978,185 @@
     <row r="25" spans="1:13" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A25" s="51"/>
       <c r="B25" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="21" t="s">
-        <v>60</v>
-      </c>
+      <c r="G25" s="21"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="13"/>
+      <c r="I25" s="4"/>
       <c r="J25" s="2"/>
       <c r="K25" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L25" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M25" s="31"/>
     </row>
-    <row r="26" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
-      <c r="B26" s="24" t="s">
-        <v>81</v>
+    <row r="26" spans="1:13" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="52"/>
+      <c r="B26" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>155</v>
+        <v>78</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="H26" s="19"/>
-      <c r="I26" s="4" t="s">
-        <v>127</v>
-      </c>
+      <c r="I26" s="13"/>
       <c r="J26" s="2"/>
       <c r="K26" s="4" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="L26" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M26" s="31"/>
     </row>
-    <row r="27" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
-      <c r="B27" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="F27" s="16" t="s">
+    <row r="27" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="52"/>
+      <c r="B27" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="11" t="s">
-        <v>157</v>
+      <c r="H27" s="19"/>
+      <c r="I27" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="L27" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M27" s="31"/>
     </row>
-    <row r="28" spans="1:13" ht="57" x14ac:dyDescent="0.2">
-      <c r="A28" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="36" t="s">
-        <v>251</v>
+    <row r="28" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="52"/>
+      <c r="B28" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="L28" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M28" s="32"/>
+      <c r="M28" s="31"/>
     </row>
-    <row r="29" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="50"/>
-      <c r="B29" s="23" t="s">
-        <v>93</v>
+    <row r="29" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+      <c r="A29" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G29" s="21"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="4"/>
+      <c r="I29" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="4" t="s">
-        <v>95</v>
+      <c r="K29" s="36" t="s">
+        <v>248</v>
       </c>
       <c r="L29" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M29" s="31"/>
+      <c r="M29" s="32"/>
     </row>
-    <row r="30" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
+    <row r="30" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="51"/>
       <c r="B30" s="23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>159</v>
+        <v>92</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="21"/>
+      <c r="G30" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="H30" s="19"/>
       <c r="I30" s="4"/>
       <c r="J30" s="2"/>
       <c r="K30" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L30" s="30" t="s">
         <v>33</v>
@@ -12702,28 +14166,26 @@
     <row r="31" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A31" s="51"/>
       <c r="B31" s="23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="21" t="s">
-        <v>107</v>
-      </c>
+      <c r="G31" s="21"/>
       <c r="H31" s="19"/>
-      <c r="I31" s="13"/>
+      <c r="I31" s="4"/>
       <c r="J31" s="2"/>
       <c r="K31" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L31" s="30" t="s">
         <v>33</v>
@@ -12731,249 +14193,249 @@
       <c r="M31" s="31"/>
     </row>
     <row r="32" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="51"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="23" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="19"/>
+        <v>105</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="2"/>
       <c r="K32" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L32" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M32" s="31"/>
     </row>
-    <row r="33" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="51"/>
+    <row r="33" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="52"/>
       <c r="B33" s="23" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="H33" s="27"/>
       <c r="I33" s="28"/>
       <c r="J33" s="19"/>
       <c r="K33" s="4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="L33" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M33" s="31"/>
     </row>
-    <row r="34" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="51"/>
-      <c r="B34" s="24" t="s">
-        <v>109</v>
+    <row r="34" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="52"/>
+      <c r="B34" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F34" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="J34" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="19"/>
       <c r="K34" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L34" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M34" s="31"/>
     </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="51"/>
-      <c r="B35" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="F35" s="16" t="s">
+    <row r="35" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="52"/>
+      <c r="B35" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="20"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="11" t="s">
-        <v>69</v>
+      <c r="H35" s="19"/>
+      <c r="I35" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="L35" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M35" s="31"/>
     </row>
-    <row r="36" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A36" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" s="21"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="5" t="s">
-        <v>87</v>
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="52"/>
+      <c r="B36" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="L36" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M36" s="32"/>
+      <c r="M36" s="31"/>
     </row>
-    <row r="37" spans="1:13" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="50"/>
-      <c r="B37" s="23" t="s">
-        <v>113</v>
+    <row r="37" spans="1:13" ht="171" x14ac:dyDescent="0.2">
+      <c r="A37" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G37" s="21"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="4"/>
+      <c r="I37" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="J37" s="2"/>
-      <c r="K37" s="4" t="s">
-        <v>115</v>
+      <c r="K37" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="L37" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M37" s="31"/>
+      <c r="M37" s="32"/>
     </row>
-    <row r="38" spans="1:13" ht="285" x14ac:dyDescent="0.2">
-      <c r="A38" s="50"/>
+    <row r="38" spans="1:13" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="51"/>
       <c r="B38" s="23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>167</v>
+        <v>112</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="21"/>
+      <c r="G38" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="H38" s="19"/>
       <c r="I38" s="4"/>
       <c r="J38" s="2"/>
       <c r="K38" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="L38" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M38" s="31"/>
     </row>
-    <row r="39" spans="1:13" ht="299.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="285" x14ac:dyDescent="0.2">
       <c r="A39" s="51"/>
       <c r="B39" s="23" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>168</v>
+        <v>115</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="21" t="s">
-        <v>60</v>
-      </c>
+      <c r="G39" s="21"/>
       <c r="H39" s="19"/>
-      <c r="I39" s="13"/>
+      <c r="I39" s="4"/>
       <c r="J39" s="2"/>
       <c r="K39" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L39" s="30" t="s">
         <v>33</v>
@@ -12981,187 +14443,189 @@
       <c r="M39" s="31"/>
     </row>
     <row r="40" spans="1:13" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="51"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>169</v>
+        <v>117</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G40" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="H40" s="27"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="L40" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M40" s="31"/>
     </row>
-    <row r="41" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A41" s="51"/>
-      <c r="B41" s="24" t="s">
-        <v>125</v>
+    <row r="41" spans="1:13" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="52"/>
+      <c r="B41" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F41" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="J41" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="H41" s="27"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="19"/>
       <c r="K41" s="4" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="L41" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M41" s="31"/>
     </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="51"/>
-      <c r="B42" s="25" t="s">
+    <row r="42" spans="1:13" ht="171" x14ac:dyDescent="0.2">
+      <c r="A42" s="52"/>
+      <c r="B42" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="20"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="11" t="s">
-        <v>69</v>
+      <c r="J42" s="2"/>
+      <c r="K42" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="L42" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M42" s="31"/>
     </row>
-    <row r="43" spans="1:13" ht="57" x14ac:dyDescent="0.2">
-      <c r="A43" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G43" s="21"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="J43" s="2"/>
-      <c r="K43" s="36" t="s">
-        <v>223</v>
+    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="52"/>
+      <c r="B43" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="L43" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M43" s="32"/>
+      <c r="M43" s="31"/>
     </row>
-    <row r="44" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="50"/>
-      <c r="B44" s="23" t="s">
-        <v>131</v>
+    <row r="44" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+      <c r="A44" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="66" t="s">
+        <v>127</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="21" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G44" s="21"/>
       <c r="H44" s="19"/>
-      <c r="I44" s="4"/>
+      <c r="I44" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="J44" s="2"/>
-      <c r="K44" s="4" t="s">
-        <v>138</v>
+      <c r="K44" s="36" t="s">
+        <v>220</v>
       </c>
       <c r="L44" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M44" s="31"/>
+      <c r="M44" s="32"/>
     </row>
-    <row r="45" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="50"/>
+    <row r="45" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="51"/>
       <c r="B45" s="23" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>173</v>
+        <v>130</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="21"/>
+      <c r="G45" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="H45" s="19"/>
       <c r="I45" s="4"/>
       <c r="J45" s="2"/>
       <c r="K45" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L45" s="30" t="s">
         <v>33</v>
@@ -13171,28 +14635,26 @@
     <row r="46" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A46" s="51"/>
       <c r="B46" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F46" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G46" s="21" t="s">
-        <v>190</v>
-      </c>
+      <c r="G46" s="21"/>
       <c r="H46" s="19"/>
-      <c r="I46" s="13"/>
+      <c r="I46" s="4"/>
       <c r="J46" s="2"/>
       <c r="K46" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L46" s="30" t="s">
         <v>33</v>
@@ -13200,249 +14662,249 @@
       <c r="M46" s="31"/>
     </row>
     <row r="47" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="51"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F47" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H47" s="27"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="19"/>
+        <v>188</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="2"/>
       <c r="K47" s="4" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="L47" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M47" s="31"/>
     </row>
-    <row r="48" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="51"/>
-      <c r="B48" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="C48" s="38" t="s">
+    <row r="48" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="52"/>
+      <c r="B48" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="E48" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="F48" s="40" t="s">
+      <c r="D48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F48" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="41" t="s">
+      <c r="G48" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" s="27"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L48" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="M48" s="31"/>
+    </row>
+    <row r="49" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="52"/>
+      <c r="B49" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F49" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="H49" s="42"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="L49" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="M49" s="47"/>
+    </row>
+    <row r="50" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="52"/>
+      <c r="B50" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="H48" s="42"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="45" t="s">
+      <c r="C50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="L48" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="M48" s="47"/>
-    </row>
-    <row r="49" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="51"/>
-      <c r="B49" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="J49" s="2"/>
-      <c r="K49" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="L49" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="M49" s="31"/>
-    </row>
-    <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="51"/>
-      <c r="B50" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H50" s="20"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="11" t="s">
-        <v>157</v>
+      <c r="J50" s="2"/>
+      <c r="K50" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="L50" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M50" s="31"/>
     </row>
-    <row r="51" spans="1:13" ht="114" x14ac:dyDescent="0.2">
-      <c r="A51" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G51" s="21"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="J51" s="2"/>
-      <c r="K51" s="5" t="s">
-        <v>87</v>
+    <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="52"/>
+      <c r="B51" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="L51" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M51" s="32"/>
+      <c r="M51" s="31"/>
     </row>
-    <row r="52" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="50"/>
-      <c r="B52" s="23" t="s">
-        <v>182</v>
+    <row r="52" spans="1:13" ht="114" x14ac:dyDescent="0.2">
+      <c r="A52" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>179</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="21" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G52" s="21"/>
       <c r="H52" s="19"/>
-      <c r="I52" s="4"/>
+      <c r="I52" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="J52" s="2"/>
-      <c r="K52" s="4" t="s">
-        <v>189</v>
+      <c r="K52" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="L52" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M52" s="31"/>
+      <c r="M52" s="32"/>
     </row>
-    <row r="53" spans="1:13" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="50"/>
+    <row r="53" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="51"/>
       <c r="B53" s="23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>229</v>
+        <v>191</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="F53" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G53" s="21"/>
+      <c r="G53" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="H53" s="19"/>
       <c r="I53" s="4"/>
       <c r="J53" s="2"/>
       <c r="K53" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L53" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M53" s="31"/>
     </row>
-    <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A54" s="51"/>
       <c r="B54" s="23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F54" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G54" s="21" t="s">
-        <v>196</v>
-      </c>
+      <c r="G54" s="21"/>
       <c r="H54" s="19"/>
-      <c r="I54" s="13"/>
+      <c r="I54" s="4"/>
       <c r="J54" s="2"/>
       <c r="K54" s="4" t="s">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="L54" s="30" t="s">
         <v>33</v>
@@ -13450,187 +14912,189 @@
       <c r="M54" s="31"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="51"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F55" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H55" s="27"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="19"/>
+        <v>194</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="2"/>
       <c r="K55" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L55" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M55" s="31"/>
     </row>
-    <row r="56" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="51"/>
-      <c r="B56" s="24" t="s">
-        <v>186</v>
+    <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="52"/>
+      <c r="B56" s="23" t="s">
+        <v>183</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F56" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="J56" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="H56" s="27"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="19"/>
       <c r="K56" s="4" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="L56" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M56" s="31"/>
     </row>
-    <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="51"/>
-      <c r="B57" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="F57" s="16" t="s">
+    <row r="57" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="52"/>
+      <c r="B57" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F57" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="G57" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H57" s="20"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="11" t="s">
-        <v>157</v>
+      <c r="H57" s="19"/>
+      <c r="I57" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="J57" s="2"/>
+      <c r="K57" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="L57" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M57" s="31"/>
     </row>
-    <row r="58" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="F58" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G58" s="21"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="J58" s="2"/>
-      <c r="K58" s="5" t="s">
-        <v>87</v>
+    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="52"/>
+      <c r="B58" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="L58" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M58" s="32"/>
+      <c r="M58" s="31"/>
     </row>
-    <row r="59" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="50"/>
-      <c r="B59" s="23" t="s">
-        <v>201</v>
+    <row r="59" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>198</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="21" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G59" s="21"/>
       <c r="H59" s="19"/>
-      <c r="I59" s="4"/>
+      <c r="I59" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="J59" s="2"/>
-      <c r="K59" s="4" t="s">
-        <v>214</v>
+      <c r="K59" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="L59" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M59" s="31"/>
+      <c r="M59" s="32"/>
     </row>
-    <row r="60" spans="1:13" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="50"/>
+    <row r="60" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="51"/>
       <c r="B60" s="23" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>236</v>
+        <v>205</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="F60" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G60" s="21"/>
+      <c r="G60" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="H60" s="19"/>
       <c r="I60" s="4"/>
       <c r="J60" s="2"/>
       <c r="K60" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L60" s="30" t="s">
         <v>33</v>
@@ -13640,28 +15104,26 @@
     <row r="61" spans="1:13" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A61" s="51"/>
       <c r="B61" s="23" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F61" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G61" s="21" t="s">
-        <v>190</v>
-      </c>
+      <c r="G61" s="21"/>
       <c r="H61" s="19"/>
-      <c r="I61" s="13"/>
+      <c r="I61" s="4"/>
       <c r="J61" s="2"/>
       <c r="K61" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L61" s="30" t="s">
         <v>33</v>
@@ -13669,107 +15131,139 @@
       <c r="M61" s="31"/>
     </row>
     <row r="62" spans="1:13" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="51"/>
+      <c r="A62" s="52"/>
       <c r="B62" s="23" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F62" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G62" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H62" s="27"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="19"/>
+        <v>188</v>
+      </c>
+      <c r="H62" s="19"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="2"/>
       <c r="K62" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L62" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M62" s="31"/>
     </row>
-    <row r="63" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="51"/>
-      <c r="B63" s="24" t="s">
-        <v>204</v>
+    <row r="63" spans="1:13" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="52"/>
+      <c r="B63" s="23" t="s">
+        <v>201</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F63" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G63" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H63" s="27"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="J63" s="2"/>
-      <c r="K63" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="L63" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M63" s="31"/>
     </row>
-    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="51"/>
-      <c r="B64" s="25" t="s">
+    <row r="64" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="52"/>
+      <c r="B64" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="F64" s="16" t="s">
+      <c r="E64" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F64" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="G64" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H64" s="20"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="11" t="s">
-        <v>157</v>
+      <c r="H64" s="19"/>
+      <c r="I64" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="J64" s="2"/>
+      <c r="K64" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="L64" s="30" t="s">
         <v>33</v>
       </c>
       <c r="M64" s="31"/>
+    </row>
+    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="52"/>
+      <c r="B65" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="L65" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="M65" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A29:A36"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="A51:A57"/>
-    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="A59:A65"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:F2"/>
@@ -13780,8 +15274,7 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="A9:A20"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A21:A28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
